--- a/input/尿结石表B：数据集.xlsx
+++ b/input/尿结石表B：数据集.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\PycharmProjects\pyqt5\NJS_ARpt_project\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF784538-B16E-4A53-BD92-F6CEF3A0FD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="爱湾内部" sheetId="12" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
   <si>
     <t>实验号</t>
   </si>
@@ -485,20 +491,24 @@
   </si>
   <si>
     <t>男</t>
+  </si>
+  <si>
+    <t>S2302030002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2302030003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,7 +531,7 @@
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -533,160 +543,30 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,210 +581,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -927,270 +621,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,82 +651,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00201BFB"/>
-      <color rgb="00E8A9A5"/>
-      <color rgb="00FCDECD"/>
+      <color rgb="FF201BFB"/>
+      <color rgb="FFE8A9A5"/>
+      <color rgb="FFFCDECD"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1532,41 +943,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EY443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="7.66071428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.33035714285714" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.8303571428571" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.1607142857143" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.1607142857143" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.6607142857143" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.6607142857143" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.1607142857143" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.6607142857143" style="5" customWidth="1"/>
-    <col min="12" max="13" width="10.6607142857143" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="5" customWidth="1"/>
-    <col min="15" max="16" width="11.6607142857143" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.66071428571429" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="5" customWidth="1"/>
+    <col min="15" max="16" width="11.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="5" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:155">
+    <row r="1" spans="1:155" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +1461,7 @@
         <v>1184.7</v>
       </c>
       <c r="F2" s="3">
-        <v>236.09067</v>
+        <v>236.09066999999999</v>
       </c>
       <c r="G2" s="3">
         <v>14880</v>
@@ -2062,7 +1473,7 @@
         <v>1220.42</v>
       </c>
       <c r="J2" s="3">
-        <v>756.344</v>
+        <v>756.34400000000005</v>
       </c>
       <c r="K2" s="3">
         <v>1170.616</v>
@@ -2071,19 +1482,19 @@
         <v>57.96</v>
       </c>
       <c r="M2" s="3">
-        <v>58.964</v>
+        <v>58.963999999999999</v>
       </c>
       <c r="N2" s="3">
         <v>992.04</v>
       </c>
       <c r="O2" s="3">
-        <v>2526.753</v>
+        <v>2526.7530000000002</v>
       </c>
       <c r="P2" s="3">
         <v>1782.672</v>
       </c>
       <c r="Q2" s="11">
-        <v>24.202</v>
+        <v>24.202000000000002</v>
       </c>
       <c r="R2" s="3">
         <v>0.9</v>
@@ -2107,10 +1518,10 @@
         <v>9.26</v>
       </c>
       <c r="Y2" s="3">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="Z2" s="3">
-        <v>37.05</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="AA2" s="3">
         <v>0</v>
@@ -2119,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AD2" s="3">
         <v>0.31</v>
       </c>
       <c r="AE2" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="3">
         <v>0.2</v>
       </c>
       <c r="AG2" s="3">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="AH2" s="3">
         <v>0.38</v>
@@ -2143,7 +1554,7 @@
         <v>8.89</v>
       </c>
       <c r="AK2" s="3">
-        <v>64.9</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="AL2" s="3">
         <v>0</v>
@@ -2194,7 +1605,7 @@
         <v>0.21</v>
       </c>
       <c r="BB2" s="3">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BC2" s="3">
         <v>0</v>
@@ -2203,7 +1614,7 @@
         <v>3.5</v>
       </c>
       <c r="BE2" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BF2" s="3">
         <v>0.35</v>
@@ -2299,7 +1710,7 @@
         <v>2.98</v>
       </c>
       <c r="CK2" s="3">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="CL2" s="3">
         <v>0</v>
@@ -2500,39 +1911,941 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="4:17">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="4:17">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="4:17">
+    <row r="3" spans="1:155">
+      <c r="A3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="3">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1184.7</v>
+      </c>
+      <c r="F3" s="3">
+        <v>236.09066999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>14880</v>
+      </c>
+      <c r="H3" s="3">
+        <v>238.21187</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1220.42</v>
+      </c>
+      <c r="J3" s="3">
+        <v>756.34400000000005</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1170.616</v>
+      </c>
+      <c r="L3" s="3">
+        <v>57.96</v>
+      </c>
+      <c r="M3" s="3">
+        <v>58.963999999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>992.04</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2526.7530000000002</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1782.672</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>24.202000000000002</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>13.67</v>
+      </c>
+      <c r="V3" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="X3" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>317.5</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="CX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="CZ3" s="3">
+        <v>9.61</v>
+      </c>
+      <c r="DA3" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="DB3" s="3">
+        <v>108.58</v>
+      </c>
+      <c r="DC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="DH3" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="DI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="DK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DM3" s="3">
+        <v>108.19</v>
+      </c>
+      <c r="DN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP3" s="3">
+        <v>19.27</v>
+      </c>
+      <c r="DQ3" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="DR3" s="3">
+        <v>23.61</v>
+      </c>
+      <c r="DS3" s="3">
+        <v>25.13</v>
+      </c>
+      <c r="DT3" s="3">
+        <v>250.53</v>
+      </c>
+      <c r="DU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DX3" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="DY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB3" s="3">
+        <v>93.95</v>
+      </c>
+      <c r="EC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="EE3" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="EF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="3">
+        <v>59.83</v>
+      </c>
+      <c r="EK3" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="EL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="3">
+        <v>21.19</v>
+      </c>
+      <c r="EQ3" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="ER3" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="3">
+        <v>37.47</v>
+      </c>
+      <c r="EU3" s="3">
+        <v>304.38</v>
+      </c>
+      <c r="EV3" s="3">
+        <v>100</v>
+      </c>
+      <c r="EW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="EY3" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:155">
+      <c r="A4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="3">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1184.7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>236.09066999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>14880</v>
+      </c>
+      <c r="H4" s="3">
+        <v>238.21187</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1220.42</v>
+      </c>
+      <c r="J4" s="3">
+        <v>756.34400000000005</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1170.616</v>
+      </c>
+      <c r="L4" s="3">
+        <v>57.96</v>
+      </c>
+      <c r="M4" s="3">
+        <v>58.963999999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>992.04</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2526.7530000000002</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1782.672</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>24.202000000000002</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>13.67</v>
+      </c>
+      <c r="V4" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="X4" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>317.5</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="CK4" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="CL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="CP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="CR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>9.61</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>108.58</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="DH4" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="DK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DM4" s="3">
+        <v>108.19</v>
+      </c>
+      <c r="DN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>19.27</v>
+      </c>
+      <c r="DQ4" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="DR4" s="3">
+        <v>23.61</v>
+      </c>
+      <c r="DS4" s="3">
+        <v>25.13</v>
+      </c>
+      <c r="DT4" s="3">
+        <v>250.53</v>
+      </c>
+      <c r="DU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DX4" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="DY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB4" s="3">
+        <v>93.95</v>
+      </c>
+      <c r="EC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="EE4" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="EF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="3">
+        <v>59.83</v>
+      </c>
+      <c r="EK4" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="EL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP4" s="3">
+        <v>21.19</v>
+      </c>
+      <c r="EQ4" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="ER4" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES4" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET4" s="3">
+        <v>37.47</v>
+      </c>
+      <c r="EU4" s="3">
+        <v>304.38</v>
+      </c>
+      <c r="EV4" s="3">
+        <v>100</v>
+      </c>
+      <c r="EW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX4" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="EY4" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:155">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2548,7 +2861,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="4:17">
+    <row r="6" spans="1:155">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2564,7 +2877,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="4:17">
+    <row r="7" spans="1:155">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2580,7 +2893,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="4:17">
+    <row r="8" spans="1:155">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2596,7 +2909,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="1:155">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2612,7 +2925,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="1:155">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2628,7 +2941,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="1:155">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2644,7 +2957,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="4:17">
+    <row r="12" spans="1:155">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2660,7 +2973,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="1:155">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2676,7 +2989,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="1:155">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2692,7 +3005,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="1:155">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2708,7 +3021,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="1:155">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2724,1543 +3037,103 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="4:17">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="4:17">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="4:17">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="4:17">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="4:17">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="4:17">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="4:17">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="4:17">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="4:17">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="4:17">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="4:17">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="4:17">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="4:17">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="4:17">
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="4:17">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="4:17">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="4:17">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="4:17">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="4:17">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="4:17">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="4:17">
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="4:17">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="4:17">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="4:17">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="4:17">
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="4:17">
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="4:17">
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="4:17">
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="4:17">
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="4:17">
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="4:17">
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="4:17">
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-    </row>
-    <row r="49" spans="4:17">
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="4:17">
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="4:17">
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="4:17">
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="4:17">
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="4:17">
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="4:17">
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="4:17">
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="4:17">
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="4:17">
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-    </row>
-    <row r="59" spans="4:17">
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="4:17">
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-    </row>
-    <row r="61" spans="4:17">
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="4:17">
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-    </row>
-    <row r="63" spans="4:17">
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="4:17">
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-    </row>
-    <row r="65" spans="4:17">
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="4:17">
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="4:17">
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="4:17">
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="4:17">
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="4:17">
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-    </row>
-    <row r="71" spans="4:17">
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-    </row>
-    <row r="72" spans="4:17">
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-    </row>
-    <row r="73" spans="4:17">
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="4:17">
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-    </row>
-    <row r="75" spans="4:17">
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="4:17">
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-    </row>
-    <row r="77" spans="4:17">
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-    </row>
-    <row r="78" spans="4:17">
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-    </row>
-    <row r="79" spans="4:17">
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="4:17">
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-    </row>
-    <row r="81" spans="4:17">
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="4:17">
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="4:17">
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="4:17">
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="4:17">
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="4:17">
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="4:17">
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="4:17">
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-    </row>
-    <row r="89" spans="4:17">
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-    </row>
-    <row r="90" spans="4:17">
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="4:17">
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
-    </row>
-    <row r="92" spans="4:17">
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
-    </row>
-    <row r="93" spans="4:17">
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="4:17">
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="4:17">
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="4:17">
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-    </row>
-    <row r="97" spans="4:17">
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
-    </row>
-    <row r="98" spans="4:17">
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-    </row>
-    <row r="99" spans="4:17">
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-    </row>
-    <row r="100" spans="4:17">
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-    </row>
-    <row r="101" spans="4:17">
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-    </row>
-    <row r="102" spans="4:17">
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-    </row>
-    <row r="103" spans="4:17">
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-    </row>
-    <row r="104" spans="4:17">
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-    </row>
-    <row r="105" spans="4:17">
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="4:17">
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="4:17">
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-    </row>
-    <row r="108" spans="4:17">
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-    </row>
-    <row r="109" spans="4:17">
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
-    </row>
-    <row r="110" spans="4:17">
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-    </row>
-    <row r="111" spans="4:17">
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-    </row>
-    <row r="112" spans="4:17">
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-    </row>
-    <row r="113" spans="4:17">
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="3" customFormat="1"/>
+    <row r="22" s="3" customFormat="1"/>
+    <row r="23" s="3" customFormat="1"/>
+    <row r="24" s="3" customFormat="1"/>
+    <row r="25" s="3" customFormat="1"/>
+    <row r="26" s="3" customFormat="1"/>
+    <row r="27" s="3" customFormat="1"/>
+    <row r="28" s="3" customFormat="1"/>
+    <row r="29" s="3" customFormat="1"/>
+    <row r="30" s="3" customFormat="1"/>
+    <row r="31" s="3" customFormat="1"/>
+    <row r="32" s="3" customFormat="1"/>
+    <row r="33" s="3" customFormat="1"/>
+    <row r="34" s="3" customFormat="1"/>
+    <row r="35" s="3" customFormat="1"/>
+    <row r="36" s="3" customFormat="1"/>
+    <row r="37" s="3" customFormat="1"/>
+    <row r="38" s="3" customFormat="1"/>
+    <row r="39" s="3" customFormat="1"/>
+    <row r="40" s="3" customFormat="1"/>
+    <row r="41" s="3" customFormat="1"/>
+    <row r="42" s="3" customFormat="1"/>
+    <row r="43" s="3" customFormat="1"/>
+    <row r="44" s="3" customFormat="1"/>
+    <row r="45" s="3" customFormat="1"/>
+    <row r="46" s="3" customFormat="1"/>
+    <row r="47" s="3" customFormat="1"/>
+    <row r="48" s="3" customFormat="1"/>
+    <row r="49" s="3" customFormat="1"/>
+    <row r="50" s="3" customFormat="1"/>
+    <row r="51" s="3" customFormat="1"/>
+    <row r="52" s="3" customFormat="1"/>
+    <row r="53" s="3" customFormat="1"/>
+    <row r="54" s="3" customFormat="1"/>
+    <row r="55" s="3" customFormat="1"/>
+    <row r="56" s="3" customFormat="1"/>
+    <row r="57" s="3" customFormat="1"/>
+    <row r="58" s="3" customFormat="1"/>
+    <row r="59" s="3" customFormat="1"/>
+    <row r="60" s="3" customFormat="1"/>
+    <row r="61" s="3" customFormat="1"/>
+    <row r="62" s="3" customFormat="1"/>
+    <row r="63" s="3" customFormat="1"/>
+    <row r="64" s="3" customFormat="1"/>
+    <row r="65" s="3" customFormat="1"/>
+    <row r="66" s="3" customFormat="1"/>
+    <row r="67" s="3" customFormat="1"/>
+    <row r="68" s="3" customFormat="1"/>
+    <row r="69" s="3" customFormat="1"/>
+    <row r="70" s="3" customFormat="1"/>
+    <row r="71" s="3" customFormat="1"/>
+    <row r="72" s="3" customFormat="1"/>
+    <row r="73" s="3" customFormat="1"/>
+    <row r="74" s="3" customFormat="1"/>
+    <row r="75" s="3" customFormat="1"/>
+    <row r="76" s="3" customFormat="1"/>
+    <row r="77" s="3" customFormat="1"/>
+    <row r="78" s="3" customFormat="1"/>
+    <row r="79" s="3" customFormat="1"/>
+    <row r="80" s="3" customFormat="1"/>
+    <row r="81" s="3" customFormat="1"/>
+    <row r="82" s="3" customFormat="1"/>
+    <row r="83" s="3" customFormat="1"/>
+    <row r="84" s="3" customFormat="1"/>
+    <row r="85" s="3" customFormat="1"/>
+    <row r="86" s="3" customFormat="1"/>
+    <row r="87" s="3" customFormat="1"/>
+    <row r="88" s="3" customFormat="1"/>
+    <row r="89" s="3" customFormat="1"/>
+    <row r="90" s="3" customFormat="1"/>
+    <row r="91" s="3" customFormat="1"/>
+    <row r="92" s="3" customFormat="1"/>
+    <row r="93" s="3" customFormat="1"/>
+    <row r="94" s="3" customFormat="1"/>
+    <row r="95" s="3" customFormat="1"/>
+    <row r="96" s="3" customFormat="1"/>
+    <row r="97" s="3" customFormat="1"/>
+    <row r="98" s="3" customFormat="1"/>
+    <row r="99" s="3" customFormat="1"/>
+    <row r="100" s="3" customFormat="1"/>
+    <row r="101" s="3" customFormat="1"/>
+    <row r="102" s="3" customFormat="1"/>
+    <row r="103" s="3" customFormat="1"/>
+    <row r="104" s="3" customFormat="1"/>
+    <row r="105" s="3" customFormat="1"/>
+    <row r="106" s="3" customFormat="1"/>
+    <row r="107" s="3" customFormat="1"/>
+    <row r="108" s="3" customFormat="1"/>
+    <row r="109" s="3" customFormat="1"/>
+    <row r="110" s="3" customFormat="1"/>
+    <row r="111" s="3" customFormat="1"/>
+    <row r="112" s="3" customFormat="1"/>
+    <row r="113" spans="1:18">
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -4276,7 +3149,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row r="114" spans="4:17">
+    <row r="114" spans="1:18">
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -4292,7 +3165,7 @@
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row r="115" spans="4:17">
+    <row r="115" spans="1:18">
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -4308,7 +3181,7 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row r="116" spans="4:17">
+    <row r="116" spans="1:18">
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -4324,7 +3197,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row r="117" spans="4:17">
+    <row r="117" spans="1:18">
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -4340,7 +3213,7 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row r="118" spans="4:17">
+    <row r="118" spans="1:18">
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -4356,7 +3229,7 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row r="119" spans="4:17">
+    <row r="119" spans="1:18">
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -4372,7 +3245,7 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row r="120" spans="4:17">
+    <row r="120" spans="1:18">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -4388,7 +3261,7 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row r="121" spans="4:17">
+    <row r="121" spans="1:18">
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -4404,7 +3277,7 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row r="122" spans="4:17">
+    <row r="122" spans="1:18">
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -4420,7 +3293,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row r="123" spans="4:17">
+    <row r="123" spans="1:18">
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -4436,7 +3309,7 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row r="124" spans="4:17">
+    <row r="124" spans="1:18">
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -4452,7 +3325,7 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row r="125" spans="4:17">
+    <row r="125" spans="1:18">
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -4468,7 +3341,7 @@
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row r="126" spans="4:17">
+    <row r="126" spans="1:18">
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -4484,7 +3357,7 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
     </row>
-    <row r="127" spans="4:17">
+    <row r="127" spans="1:18">
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -4500,7 +3373,7 @@
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:18">
+    <row r="128" spans="1:18" s="2" customFormat="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4520,7 +3393,7 @@
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
     </row>
-    <row r="129" s="2" customFormat="1" spans="1:18">
+    <row r="129" spans="1:18" s="2" customFormat="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4540,7 +3413,7 @@
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
     </row>
-    <row r="130" s="2" customFormat="1" spans="1:18">
+    <row r="130" spans="1:18" s="2" customFormat="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4560,7 +3433,7 @@
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
     </row>
-    <row r="131" s="2" customFormat="1" spans="1:18">
+    <row r="131" spans="1:18" s="2" customFormat="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4580,7 +3453,7 @@
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
     </row>
-    <row r="132" s="2" customFormat="1" spans="1:18">
+    <row r="132" spans="1:18" s="2" customFormat="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4600,7 +3473,7 @@
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
     </row>
-    <row r="133" s="2" customFormat="1" spans="1:18">
+    <row r="133" spans="1:18" s="2" customFormat="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4620,7 +3493,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
     </row>
-    <row r="134" s="2" customFormat="1" spans="1:18">
+    <row r="134" spans="1:18" s="2" customFormat="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4640,7 +3513,7 @@
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
     </row>
-    <row r="135" s="2" customFormat="1" spans="1:18">
+    <row r="135" spans="1:18" s="2" customFormat="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4660,7 +3533,7 @@
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
     </row>
-    <row r="136" s="2" customFormat="1" spans="1:18">
+    <row r="136" spans="1:18" s="2" customFormat="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4680,7 +3553,7 @@
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
     </row>
-    <row r="137" s="2" customFormat="1" spans="1:18">
+    <row r="137" spans="1:18" s="2" customFormat="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4700,7 +3573,7 @@
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
     </row>
-    <row r="138" s="2" customFormat="1" spans="1:18">
+    <row r="138" spans="1:18" s="2" customFormat="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4720,7 +3593,7 @@
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
     </row>
-    <row r="139" s="2" customFormat="1" spans="1:18">
+    <row r="139" spans="1:18" s="2" customFormat="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4740,7 +3613,7 @@
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
     </row>
-    <row r="140" s="2" customFormat="1" spans="1:18">
+    <row r="140" spans="1:18" s="2" customFormat="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4760,7 +3633,7 @@
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
     </row>
-    <row r="141" s="2" customFormat="1" spans="1:18">
+    <row r="141" spans="1:18" s="2" customFormat="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4780,7 +3653,7 @@
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
     </row>
-    <row r="142" s="2" customFormat="1" spans="1:18">
+    <row r="142" spans="1:18" s="2" customFormat="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4800,7 +3673,7 @@
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
     </row>
-    <row r="143" s="2" customFormat="1" spans="1:18">
+    <row r="143" spans="1:18" s="2" customFormat="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4820,7 +3693,7 @@
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
     </row>
-    <row r="144" s="2" customFormat="1" spans="1:18">
+    <row r="144" spans="1:18" s="2" customFormat="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4840,7 +3713,7 @@
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
     </row>
-    <row r="145" s="2" customFormat="1" spans="1:18">
+    <row r="145" spans="1:18" s="2" customFormat="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4860,7 +3733,7 @@
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
     </row>
-    <row r="146" s="2" customFormat="1" spans="1:18">
+    <row r="146" spans="1:18" s="2" customFormat="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4880,7 +3753,7 @@
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
     </row>
-    <row r="147" s="2" customFormat="1" spans="1:18">
+    <row r="147" spans="1:18" s="2" customFormat="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4900,7 +3773,7 @@
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
     </row>
-    <row r="148" s="2" customFormat="1" spans="1:18">
+    <row r="148" spans="1:18" s="2" customFormat="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4920,7 +3793,7 @@
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
     </row>
-    <row r="149" s="2" customFormat="1" spans="1:18">
+    <row r="149" spans="1:18" s="2" customFormat="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4940,7 +3813,7 @@
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
     </row>
-    <row r="150" s="2" customFormat="1" spans="1:18">
+    <row r="150" spans="1:18" s="2" customFormat="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4960,7 +3833,7 @@
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
     </row>
-    <row r="151" s="2" customFormat="1" spans="1:18">
+    <row r="151" spans="1:18" s="2" customFormat="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4980,7 +3853,7 @@
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
     </row>
-    <row r="152" s="2" customFormat="1" spans="1:18">
+    <row r="152" spans="1:18" s="2" customFormat="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5000,7 +3873,7 @@
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
     </row>
-    <row r="153" s="2" customFormat="1" spans="1:18">
+    <row r="153" spans="1:18" s="2" customFormat="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5020,7 +3893,7 @@
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
     </row>
-    <row r="154" s="2" customFormat="1" spans="1:18">
+    <row r="154" spans="1:18" s="2" customFormat="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5040,7 +3913,7 @@
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
     </row>
-    <row r="155" s="2" customFormat="1" spans="1:18">
+    <row r="155" spans="1:18" s="2" customFormat="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5060,7 +3933,7 @@
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
     </row>
-    <row r="156" s="2" customFormat="1" spans="1:18">
+    <row r="156" spans="1:18" s="2" customFormat="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5080,7 +3953,7 @@
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
     </row>
-    <row r="157" s="2" customFormat="1" spans="1:18">
+    <row r="157" spans="1:18" s="2" customFormat="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5100,7 +3973,7 @@
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
     </row>
-    <row r="158" s="2" customFormat="1" spans="1:18">
+    <row r="158" spans="1:18" s="2" customFormat="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5120,7 +3993,7 @@
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
     </row>
-    <row r="159" s="2" customFormat="1" spans="1:18">
+    <row r="159" spans="1:18" s="2" customFormat="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5140,7 +4013,7 @@
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
     </row>
-    <row r="160" s="2" customFormat="1" spans="1:18">
+    <row r="160" spans="1:18" s="2" customFormat="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5160,7 +4033,7 @@
       <c r="Q160" s="3"/>
       <c r="R160" s="3"/>
     </row>
-    <row r="161" s="2" customFormat="1" spans="1:18">
+    <row r="161" spans="1:18" s="2" customFormat="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5180,7 +4053,7 @@
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
     </row>
-    <row r="162" s="2" customFormat="1" spans="1:18">
+    <row r="162" spans="1:18" s="2" customFormat="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5200,7 +4073,7 @@
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
     </row>
-    <row r="163" s="2" customFormat="1" spans="1:18">
+    <row r="163" spans="1:18" s="2" customFormat="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5220,7 +4093,7 @@
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
     </row>
-    <row r="164" s="2" customFormat="1" spans="1:18">
+    <row r="164" spans="1:18" s="2" customFormat="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5240,7 +4113,7 @@
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
     </row>
-    <row r="165" s="2" customFormat="1" spans="1:18">
+    <row r="165" spans="1:18" s="2" customFormat="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5260,7 +4133,7 @@
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
     </row>
-    <row r="166" s="2" customFormat="1" spans="1:18">
+    <row r="166" spans="1:18" s="2" customFormat="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5280,7 +4153,7 @@
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
     </row>
-    <row r="167" s="2" customFormat="1" spans="1:18">
+    <row r="167" spans="1:18" s="2" customFormat="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5300,7 +4173,7 @@
       <c r="Q167" s="3"/>
       <c r="R167" s="3"/>
     </row>
-    <row r="168" s="2" customFormat="1" spans="1:18">
+    <row r="168" spans="1:18" s="2" customFormat="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5320,7 +4193,7 @@
       <c r="Q168" s="3"/>
       <c r="R168" s="3"/>
     </row>
-    <row r="169" s="2" customFormat="1" spans="1:18">
+    <row r="169" spans="1:18" s="2" customFormat="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5340,7 +4213,7 @@
       <c r="Q169" s="3"/>
       <c r="R169" s="3"/>
     </row>
-    <row r="170" s="2" customFormat="1" spans="1:18">
+    <row r="170" spans="1:18" s="2" customFormat="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5360,7 +4233,7 @@
       <c r="Q170" s="3"/>
       <c r="R170" s="3"/>
     </row>
-    <row r="171" s="2" customFormat="1" spans="1:18">
+    <row r="171" spans="1:18" s="2" customFormat="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5380,7 +4253,7 @@
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
     </row>
-    <row r="172" s="2" customFormat="1" spans="1:18">
+    <row r="172" spans="1:18" s="2" customFormat="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5400,7 +4273,7 @@
       <c r="Q172" s="3"/>
       <c r="R172" s="3"/>
     </row>
-    <row r="173" s="2" customFormat="1" spans="1:18">
+    <row r="173" spans="1:18" s="2" customFormat="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5420,7 +4293,7 @@
       <c r="Q173" s="3"/>
       <c r="R173" s="3"/>
     </row>
-    <row r="174" s="2" customFormat="1" spans="1:18">
+    <row r="174" spans="1:18" s="2" customFormat="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5440,7 +4313,7 @@
       <c r="Q174" s="3"/>
       <c r="R174" s="3"/>
     </row>
-    <row r="175" s="2" customFormat="1" spans="1:18">
+    <row r="175" spans="1:18" s="2" customFormat="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5460,7 +4333,7 @@
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" s="2" customFormat="1" spans="1:18">
+    <row r="176" spans="1:18" s="2" customFormat="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5480,7 +4353,7 @@
       <c r="Q176" s="3"/>
       <c r="R176" s="3"/>
     </row>
-    <row r="177" s="2" customFormat="1" spans="1:18">
+    <row r="177" spans="1:18" s="2" customFormat="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5500,7 +4373,7 @@
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
     </row>
-    <row r="178" s="2" customFormat="1" spans="1:18">
+    <row r="178" spans="1:18" s="2" customFormat="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5520,7 +4393,7 @@
       <c r="Q178" s="3"/>
       <c r="R178" s="3"/>
     </row>
-    <row r="179" s="2" customFormat="1" spans="1:18">
+    <row r="179" spans="1:18" s="2" customFormat="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5540,7 +4413,7 @@
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:18">
+    <row r="180" spans="1:18" s="2" customFormat="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5560,7 +4433,7 @@
       <c r="Q180" s="3"/>
       <c r="R180" s="3"/>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:18">
+    <row r="181" spans="1:18" s="2" customFormat="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5580,7 +4453,7 @@
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:18">
+    <row r="182" spans="1:18" s="2" customFormat="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5600,7 +4473,7 @@
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
     </row>
-    <row r="183" s="2" customFormat="1" spans="1:18">
+    <row r="183" spans="1:18" s="2" customFormat="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5620,7 +4493,7 @@
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
     </row>
-    <row r="184" s="2" customFormat="1" spans="1:18">
+    <row r="184" spans="1:18" s="2" customFormat="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5640,7 +4513,7 @@
       <c r="Q184" s="3"/>
       <c r="R184" s="3"/>
     </row>
-    <row r="185" s="2" customFormat="1" spans="1:18">
+    <row r="185" spans="1:18" s="2" customFormat="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5660,7 +4533,7 @@
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
     </row>
-    <row r="186" s="2" customFormat="1" spans="1:18">
+    <row r="186" spans="1:18" s="2" customFormat="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5680,7 +4553,7 @@
       <c r="Q186" s="3"/>
       <c r="R186" s="3"/>
     </row>
-    <row r="187" s="2" customFormat="1" spans="1:18">
+    <row r="187" spans="1:18" s="2" customFormat="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5700,7 +4573,7 @@
       <c r="Q187" s="3"/>
       <c r="R187" s="3"/>
     </row>
-    <row r="188" s="2" customFormat="1" spans="1:18">
+    <row r="188" spans="1:18" s="2" customFormat="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5720,7 +4593,7 @@
       <c r="Q188" s="3"/>
       <c r="R188" s="3"/>
     </row>
-    <row r="189" s="2" customFormat="1" spans="1:18">
+    <row r="189" spans="1:18" s="2" customFormat="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5740,7 +4613,7 @@
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
     </row>
-    <row r="190" s="2" customFormat="1" spans="1:18">
+    <row r="190" spans="1:18" s="2" customFormat="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5760,7 +4633,7 @@
       <c r="Q190" s="3"/>
       <c r="R190" s="3"/>
     </row>
-    <row r="191" s="2" customFormat="1" spans="1:18">
+    <row r="191" spans="1:18" s="2" customFormat="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5780,7 +4653,7 @@
       <c r="Q191" s="3"/>
       <c r="R191" s="3"/>
     </row>
-    <row r="192" s="2" customFormat="1" spans="1:18">
+    <row r="192" spans="1:18" s="2" customFormat="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5800,7 +4673,7 @@
       <c r="Q192" s="3"/>
       <c r="R192" s="3"/>
     </row>
-    <row r="193" s="2" customFormat="1" spans="1:18">
+    <row r="193" spans="1:18" s="2" customFormat="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5820,7 +4693,7 @@
       <c r="Q193" s="3"/>
       <c r="R193" s="3"/>
     </row>
-    <row r="194" s="2" customFormat="1" spans="1:18">
+    <row r="194" spans="1:18" s="2" customFormat="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5840,7 +4713,7 @@
       <c r="Q194" s="3"/>
       <c r="R194" s="3"/>
     </row>
-    <row r="195" s="2" customFormat="1" spans="1:18">
+    <row r="195" spans="1:18" s="2" customFormat="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5860,7 +4733,7 @@
       <c r="Q195" s="3"/>
       <c r="R195" s="3"/>
     </row>
-    <row r="196" s="2" customFormat="1" spans="1:18">
+    <row r="196" spans="1:18" s="2" customFormat="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5880,7 +4753,7 @@
       <c r="Q196" s="3"/>
       <c r="R196" s="3"/>
     </row>
-    <row r="197" s="2" customFormat="1" spans="1:18">
+    <row r="197" spans="1:18" s="2" customFormat="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5900,7 +4773,7 @@
       <c r="Q197" s="3"/>
       <c r="R197" s="3"/>
     </row>
-    <row r="198" s="2" customFormat="1" spans="1:18">
+    <row r="198" spans="1:18" s="2" customFormat="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -5920,7 +4793,7 @@
       <c r="Q198" s="3"/>
       <c r="R198" s="3"/>
     </row>
-    <row r="199" s="2" customFormat="1" spans="1:18">
+    <row r="199" spans="1:18" s="2" customFormat="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -5940,7 +4813,7 @@
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
     </row>
-    <row r="200" s="2" customFormat="1" spans="1:18">
+    <row r="200" spans="1:18" s="2" customFormat="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -5960,7 +4833,7 @@
       <c r="Q200" s="3"/>
       <c r="R200" s="3"/>
     </row>
-    <row r="201" s="2" customFormat="1" spans="1:18">
+    <row r="201" spans="1:18" s="2" customFormat="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -5980,7 +4853,7 @@
       <c r="Q201" s="3"/>
       <c r="R201" s="3"/>
     </row>
-    <row r="202" s="2" customFormat="1" spans="1:18">
+    <row r="202" spans="1:18" s="2" customFormat="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6000,7 +4873,7 @@
       <c r="Q202" s="3"/>
       <c r="R202" s="3"/>
     </row>
-    <row r="203" s="2" customFormat="1" spans="1:18">
+    <row r="203" spans="1:18" s="2" customFormat="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6020,7 +4893,7 @@
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
     </row>
-    <row r="204" s="2" customFormat="1" spans="1:18">
+    <row r="204" spans="1:18" s="2" customFormat="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6040,7 +4913,7 @@
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
     </row>
-    <row r="205" s="2" customFormat="1" spans="1:18">
+    <row r="205" spans="1:18" s="2" customFormat="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6060,7 +4933,7 @@
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
     </row>
-    <row r="206" s="2" customFormat="1" spans="1:18">
+    <row r="206" spans="1:18" s="2" customFormat="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6080,7 +4953,7 @@
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
     </row>
-    <row r="207" s="2" customFormat="1" spans="1:18">
+    <row r="207" spans="1:18" s="2" customFormat="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6100,7 +4973,7 @@
       <c r="Q207" s="3"/>
       <c r="R207" s="3"/>
     </row>
-    <row r="208" s="2" customFormat="1" spans="1:18">
+    <row r="208" spans="1:18" s="2" customFormat="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6120,7 +4993,7 @@
       <c r="Q208" s="3"/>
       <c r="R208" s="3"/>
     </row>
-    <row r="209" s="2" customFormat="1" spans="1:18">
+    <row r="209" spans="1:18" s="2" customFormat="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6140,7 +5013,7 @@
       <c r="Q209" s="3"/>
       <c r="R209" s="3"/>
     </row>
-    <row r="210" s="2" customFormat="1" spans="1:18">
+    <row r="210" spans="1:18" s="2" customFormat="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6160,7 +5033,7 @@
       <c r="Q210" s="3"/>
       <c r="R210" s="3"/>
     </row>
-    <row r="211" s="2" customFormat="1" spans="1:18">
+    <row r="211" spans="1:18" s="2" customFormat="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6180,7 +5053,7 @@
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
     </row>
-    <row r="212" s="2" customFormat="1" spans="1:18">
+    <row r="212" spans="1:18" s="2" customFormat="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6200,7 +5073,7 @@
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
     </row>
-    <row r="213" s="2" customFormat="1" spans="1:18">
+    <row r="213" spans="1:18" s="2" customFormat="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6220,7 +5093,7 @@
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
     </row>
-    <row r="214" s="2" customFormat="1" spans="1:18">
+    <row r="214" spans="1:18" s="2" customFormat="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6240,7 +5113,7 @@
       <c r="Q214" s="3"/>
       <c r="R214" s="3"/>
     </row>
-    <row r="215" s="2" customFormat="1" spans="1:18">
+    <row r="215" spans="1:18" s="2" customFormat="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6260,7 +5133,7 @@
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
     </row>
-    <row r="216" s="2" customFormat="1" spans="1:18">
+    <row r="216" spans="1:18" s="2" customFormat="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6280,7 +5153,7 @@
       <c r="Q216" s="3"/>
       <c r="R216" s="3"/>
     </row>
-    <row r="217" s="2" customFormat="1" spans="1:18">
+    <row r="217" spans="1:18" s="2" customFormat="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6300,7 +5173,7 @@
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
     </row>
-    <row r="218" s="2" customFormat="1" spans="1:18">
+    <row r="218" spans="1:18" s="2" customFormat="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6320,7 +5193,7 @@
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
     </row>
-    <row r="219" s="2" customFormat="1" spans="1:18">
+    <row r="219" spans="1:18" s="2" customFormat="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6340,7 +5213,7 @@
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
     </row>
-    <row r="220" s="2" customFormat="1" spans="1:18">
+    <row r="220" spans="1:18" s="2" customFormat="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6360,7 +5233,7 @@
       <c r="Q220" s="3"/>
       <c r="R220" s="3"/>
     </row>
-    <row r="221" s="2" customFormat="1" spans="1:18">
+    <row r="221" spans="1:18" s="2" customFormat="1">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6380,7 +5253,7 @@
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
     </row>
-    <row r="222" s="2" customFormat="1" spans="1:18">
+    <row r="222" spans="1:18" s="2" customFormat="1">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6400,7 +5273,7 @@
       <c r="Q222" s="3"/>
       <c r="R222" s="3"/>
     </row>
-    <row r="223" s="2" customFormat="1" spans="1:18">
+    <row r="223" spans="1:18" s="2" customFormat="1">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6420,7 +5293,7 @@
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
     </row>
-    <row r="224" s="2" customFormat="1" spans="1:18">
+    <row r="224" spans="1:18" s="2" customFormat="1">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6440,7 +5313,7 @@
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
     </row>
-    <row r="225" s="2" customFormat="1" spans="1:18">
+    <row r="225" spans="1:18" s="2" customFormat="1">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6460,7 +5333,7 @@
       <c r="Q225" s="3"/>
       <c r="R225" s="3"/>
     </row>
-    <row r="226" s="2" customFormat="1" spans="1:18">
+    <row r="226" spans="1:18" s="2" customFormat="1">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -6480,7 +5353,7 @@
       <c r="Q226" s="3"/>
       <c r="R226" s="3"/>
     </row>
-    <row r="227" s="2" customFormat="1" spans="1:18">
+    <row r="227" spans="1:18" s="2" customFormat="1">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -6500,7 +5373,7 @@
       <c r="Q227" s="3"/>
       <c r="R227" s="3"/>
     </row>
-    <row r="228" s="2" customFormat="1" spans="1:18">
+    <row r="228" spans="1:18" s="2" customFormat="1">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -6520,7 +5393,7 @@
       <c r="Q228" s="3"/>
       <c r="R228" s="3"/>
     </row>
-    <row r="229" s="2" customFormat="1" spans="1:18">
+    <row r="229" spans="1:18" s="2" customFormat="1">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -6540,7 +5413,7 @@
       <c r="Q229" s="3"/>
       <c r="R229" s="3"/>
     </row>
-    <row r="230" s="2" customFormat="1" spans="1:18">
+    <row r="230" spans="1:18" s="2" customFormat="1">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -6560,7 +5433,7 @@
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
     </row>
-    <row r="231" s="2" customFormat="1" spans="1:18">
+    <row r="231" spans="1:18" s="2" customFormat="1">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -6580,7 +5453,7 @@
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
     </row>
-    <row r="232" s="2" customFormat="1" spans="1:18">
+    <row r="232" spans="1:18" s="2" customFormat="1">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -6600,7 +5473,7 @@
       <c r="Q232" s="3"/>
       <c r="R232" s="3"/>
     </row>
-    <row r="233" s="2" customFormat="1" spans="1:18">
+    <row r="233" spans="1:18" s="2" customFormat="1">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -6620,7 +5493,7 @@
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
     </row>
-    <row r="234" s="2" customFormat="1" spans="1:18">
+    <row r="234" spans="1:18" s="2" customFormat="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -6640,7 +5513,7 @@
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
     </row>
-    <row r="235" s="2" customFormat="1" spans="1:18">
+    <row r="235" spans="1:18" s="2" customFormat="1">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -6660,7 +5533,7 @@
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
     </row>
-    <row r="236" s="2" customFormat="1" spans="1:18">
+    <row r="236" spans="1:18" s="2" customFormat="1">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -6680,7 +5553,7 @@
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
     </row>
-    <row r="237" s="2" customFormat="1" spans="1:18">
+    <row r="237" spans="1:18" s="2" customFormat="1">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -6700,7 +5573,7 @@
       <c r="Q237" s="3"/>
       <c r="R237" s="3"/>
     </row>
-    <row r="238" s="2" customFormat="1" spans="1:18">
+    <row r="238" spans="1:18" s="2" customFormat="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -6720,7 +5593,7 @@
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
     </row>
-    <row r="239" s="2" customFormat="1" spans="1:18">
+    <row r="239" spans="1:18" s="2" customFormat="1">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -6740,7 +5613,7 @@
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
     </row>
-    <row r="240" s="2" customFormat="1" spans="1:18">
+    <row r="240" spans="1:18" s="2" customFormat="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -6760,7 +5633,7 @@
       <c r="Q240" s="3"/>
       <c r="R240" s="3"/>
     </row>
-    <row r="241" s="2" customFormat="1" spans="1:18">
+    <row r="241" spans="1:18" s="2" customFormat="1">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -6780,7 +5653,7 @@
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
     </row>
-    <row r="242" s="2" customFormat="1" spans="1:18">
+    <row r="242" spans="1:18" s="2" customFormat="1">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -6800,7 +5673,7 @@
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
     </row>
-    <row r="243" s="2" customFormat="1" spans="1:18">
+    <row r="243" spans="1:18" s="2" customFormat="1">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -6820,7 +5693,7 @@
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
     </row>
-    <row r="244" s="2" customFormat="1" spans="1:18">
+    <row r="244" spans="1:18" s="2" customFormat="1">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -6840,7 +5713,7 @@
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
     </row>
-    <row r="245" s="2" customFormat="1" spans="1:18">
+    <row r="245" spans="1:18" s="2" customFormat="1">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -6860,7 +5733,7 @@
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
     </row>
-    <row r="246" s="2" customFormat="1" spans="1:18">
+    <row r="246" spans="1:18" s="2" customFormat="1">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -6880,7 +5753,7 @@
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
     </row>
-    <row r="247" s="2" customFormat="1" spans="1:18">
+    <row r="247" spans="1:18" s="2" customFormat="1">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -6900,7 +5773,7 @@
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
     </row>
-    <row r="248" s="2" customFormat="1" spans="1:18">
+    <row r="248" spans="1:18" s="2" customFormat="1">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -6920,7 +5793,7 @@
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
     </row>
-    <row r="249" s="2" customFormat="1" spans="1:18">
+    <row r="249" spans="1:18" s="2" customFormat="1">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -6940,7 +5813,7 @@
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
     </row>
-    <row r="250" s="2" customFormat="1" spans="1:18">
+    <row r="250" spans="1:18" s="2" customFormat="1">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -6960,7 +5833,7 @@
       <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
     </row>
-    <row r="251" s="2" customFormat="1" spans="1:18">
+    <row r="251" spans="1:18" s="2" customFormat="1">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -6980,7 +5853,7 @@
       <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
     </row>
-    <row r="252" s="2" customFormat="1" spans="1:18">
+    <row r="252" spans="1:18" s="2" customFormat="1">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7000,7 +5873,7 @@
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
     </row>
-    <row r="253" s="2" customFormat="1" spans="1:18">
+    <row r="253" spans="1:18" s="2" customFormat="1">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7020,7 +5893,7 @@
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
     </row>
-    <row r="254" s="2" customFormat="1" spans="1:18">
+    <row r="254" spans="1:18" s="2" customFormat="1">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7040,7 +5913,7 @@
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
     </row>
-    <row r="255" s="2" customFormat="1" spans="1:18">
+    <row r="255" spans="1:18" s="2" customFormat="1">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7060,7 +5933,7 @@
       <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
     </row>
-    <row r="256" s="2" customFormat="1" spans="1:18">
+    <row r="256" spans="1:18" s="2" customFormat="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7080,7 +5953,7 @@
       <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
     </row>
-    <row r="257" s="2" customFormat="1" spans="1:18">
+    <row r="257" spans="1:18" s="2" customFormat="1">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7100,7 +5973,7 @@
       <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
     </row>
-    <row r="258" s="2" customFormat="1" spans="1:18">
+    <row r="258" spans="1:18" s="2" customFormat="1">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7120,7 +5993,7 @@
       <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
     </row>
-    <row r="259" s="2" customFormat="1" spans="1:18">
+    <row r="259" spans="1:18" s="2" customFormat="1">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7140,7 +6013,7 @@
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
     </row>
-    <row r="260" s="2" customFormat="1" spans="1:18">
+    <row r="260" spans="1:18" s="2" customFormat="1">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7160,7 +6033,7 @@
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
     </row>
-    <row r="261" s="2" customFormat="1" spans="1:18">
+    <row r="261" spans="1:18" s="2" customFormat="1">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -7180,7 +6053,7 @@
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
     </row>
-    <row r="262" s="2" customFormat="1" spans="1:18">
+    <row r="262" spans="1:18" s="2" customFormat="1">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -7200,7 +6073,7 @@
       <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
     </row>
-    <row r="263" s="2" customFormat="1" spans="1:18">
+    <row r="263" spans="1:18" s="2" customFormat="1">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -7220,7 +6093,7 @@
       <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
     </row>
-    <row r="264" s="2" customFormat="1" spans="1:18">
+    <row r="264" spans="1:18" s="2" customFormat="1">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -7240,7 +6113,7 @@
       <c r="Q264" s="3"/>
       <c r="R264" s="3"/>
     </row>
-    <row r="265" s="2" customFormat="1" spans="1:18">
+    <row r="265" spans="1:18" s="2" customFormat="1">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -7260,7 +6133,7 @@
       <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
     </row>
-    <row r="266" s="2" customFormat="1" spans="1:18">
+    <row r="266" spans="1:18" s="2" customFormat="1">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -7280,7 +6153,7 @@
       <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
     </row>
-    <row r="267" s="2" customFormat="1" spans="1:18">
+    <row r="267" spans="1:18" s="2" customFormat="1">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -7300,7 +6173,7 @@
       <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
     </row>
-    <row r="268" s="2" customFormat="1" spans="1:18">
+    <row r="268" spans="1:18" s="2" customFormat="1">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -7320,7 +6193,7 @@
       <c r="Q268" s="3"/>
       <c r="R268" s="3"/>
     </row>
-    <row r="269" s="2" customFormat="1" spans="1:18">
+    <row r="269" spans="1:18" s="2" customFormat="1">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -7340,7 +6213,7 @@
       <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
     </row>
-    <row r="270" s="2" customFormat="1" spans="1:18">
+    <row r="270" spans="1:18" s="2" customFormat="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -7360,7 +6233,7 @@
       <c r="Q270" s="3"/>
       <c r="R270" s="3"/>
     </row>
-    <row r="271" s="2" customFormat="1" spans="1:18">
+    <row r="271" spans="1:18" s="2" customFormat="1">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -7380,7 +6253,7 @@
       <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
     </row>
-    <row r="272" s="2" customFormat="1" spans="1:18">
+    <row r="272" spans="1:18" s="2" customFormat="1">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -7400,7 +6273,7 @@
       <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
     </row>
-    <row r="273" s="2" customFormat="1" spans="1:18">
+    <row r="273" spans="1:18" s="2" customFormat="1">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -7420,7 +6293,7 @@
       <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
     </row>
-    <row r="274" s="2" customFormat="1" spans="1:18">
+    <row r="274" spans="1:18" s="2" customFormat="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -7440,7 +6313,7 @@
       <c r="Q274" s="3"/>
       <c r="R274" s="3"/>
     </row>
-    <row r="275" s="2" customFormat="1" spans="1:18">
+    <row r="275" spans="1:18" s="2" customFormat="1">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -7460,7 +6333,7 @@
       <c r="Q275" s="3"/>
       <c r="R275" s="3"/>
     </row>
-    <row r="276" s="2" customFormat="1" spans="1:18">
+    <row r="276" spans="1:18" s="2" customFormat="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -7480,7 +6353,7 @@
       <c r="Q276" s="3"/>
       <c r="R276" s="3"/>
     </row>
-    <row r="277" s="2" customFormat="1" spans="1:18">
+    <row r="277" spans="1:18" s="2" customFormat="1">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -7500,7 +6373,7 @@
       <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
     </row>
-    <row r="278" s="2" customFormat="1" spans="1:18">
+    <row r="278" spans="1:18" s="2" customFormat="1">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -7520,7 +6393,7 @@
       <c r="Q278" s="3"/>
       <c r="R278" s="3"/>
     </row>
-    <row r="279" s="2" customFormat="1" spans="1:18">
+    <row r="279" spans="1:18" s="2" customFormat="1">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -7540,7 +6413,7 @@
       <c r="Q279" s="3"/>
       <c r="R279" s="3"/>
     </row>
-    <row r="280" s="2" customFormat="1" spans="1:18">
+    <row r="280" spans="1:18" s="2" customFormat="1">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -7560,7 +6433,7 @@
       <c r="Q280" s="3"/>
       <c r="R280" s="3"/>
     </row>
-    <row r="281" s="2" customFormat="1" spans="1:18">
+    <row r="281" spans="1:18" s="2" customFormat="1">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -7580,7 +6453,7 @@
       <c r="Q281" s="3"/>
       <c r="R281" s="3"/>
     </row>
-    <row r="282" s="2" customFormat="1" spans="1:18">
+    <row r="282" spans="1:18" s="2" customFormat="1">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -7600,7 +6473,7 @@
       <c r="Q282" s="3"/>
       <c r="R282" s="3"/>
     </row>
-    <row r="283" s="2" customFormat="1" spans="1:18">
+    <row r="283" spans="1:18" s="2" customFormat="1">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -7620,7 +6493,7 @@
       <c r="Q283" s="3"/>
       <c r="R283" s="3"/>
     </row>
-    <row r="284" spans="4:17">
+    <row r="284" spans="1:18">
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
@@ -7636,7 +6509,7 @@
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
     </row>
-    <row r="285" spans="4:17">
+    <row r="285" spans="1:18">
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
@@ -7652,7 +6525,7 @@
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
     </row>
-    <row r="286" spans="4:17">
+    <row r="286" spans="1:18">
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
@@ -7668,7 +6541,7 @@
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
     </row>
-    <row r="287" spans="4:17">
+    <row r="287" spans="1:18">
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
@@ -7684,7 +6557,7 @@
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
     </row>
-    <row r="288" spans="4:17">
+    <row r="288" spans="1:18">
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
@@ -7700,1798 +6573,118 @@
       <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
     </row>
-    <row r="289" spans="4:17">
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="3"/>
-      <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
-      <c r="I289" s="3"/>
-      <c r="J289" s="3"/>
-      <c r="K289" s="3"/>
-      <c r="L289" s="3"/>
-      <c r="M289" s="3"/>
-      <c r="N289" s="3"/>
-      <c r="O289" s="3"/>
-      <c r="P289" s="3"/>
-      <c r="Q289" s="3"/>
-    </row>
-    <row r="290" spans="4:17">
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
-      <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
-      <c r="I290" s="3"/>
-      <c r="J290" s="3"/>
-      <c r="K290" s="3"/>
-      <c r="L290" s="3"/>
-      <c r="M290" s="3"/>
-      <c r="N290" s="3"/>
-      <c r="O290" s="3"/>
-      <c r="P290" s="3"/>
-      <c r="Q290" s="3"/>
-    </row>
-    <row r="291" spans="4:17">
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
-      <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
-      <c r="I291" s="3"/>
-      <c r="J291" s="3"/>
-      <c r="K291" s="3"/>
-      <c r="L291" s="3"/>
-      <c r="M291" s="3"/>
-      <c r="N291" s="3"/>
-      <c r="O291" s="3"/>
-      <c r="P291" s="3"/>
-      <c r="Q291" s="3"/>
-    </row>
-    <row r="292" spans="4:17">
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
-      <c r="J292" s="3"/>
-      <c r="K292" s="3"/>
-      <c r="L292" s="3"/>
-      <c r="M292" s="3"/>
-      <c r="N292" s="3"/>
-      <c r="O292" s="3"/>
-      <c r="P292" s="3"/>
-      <c r="Q292" s="3"/>
-    </row>
-    <row r="293" spans="4:17">
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
-      <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
-      <c r="I293" s="3"/>
-      <c r="J293" s="3"/>
-      <c r="K293" s="3"/>
-      <c r="L293" s="3"/>
-      <c r="M293" s="3"/>
-      <c r="N293" s="3"/>
-      <c r="O293" s="3"/>
-      <c r="P293" s="3"/>
-      <c r="Q293" s="3"/>
-    </row>
-    <row r="294" spans="4:17">
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
-      <c r="F294" s="3"/>
-      <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
-      <c r="I294" s="3"/>
-      <c r="J294" s="3"/>
-      <c r="K294" s="3"/>
-      <c r="L294" s="3"/>
-      <c r="M294" s="3"/>
-      <c r="N294" s="3"/>
-      <c r="O294" s="3"/>
-      <c r="P294" s="3"/>
-      <c r="Q294" s="3"/>
-    </row>
-    <row r="295" spans="4:17">
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
-      <c r="K295" s="3"/>
-      <c r="L295" s="3"/>
-      <c r="M295" s="3"/>
-      <c r="N295" s="3"/>
-      <c r="O295" s="3"/>
-      <c r="P295" s="3"/>
-      <c r="Q295" s="3"/>
-    </row>
-    <row r="296" spans="4:17">
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
-      <c r="F296" s="3"/>
-      <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
-      <c r="I296" s="3"/>
-      <c r="J296" s="3"/>
-      <c r="K296" s="3"/>
-      <c r="L296" s="3"/>
-      <c r="M296" s="3"/>
-      <c r="N296" s="3"/>
-      <c r="O296" s="3"/>
-      <c r="P296" s="3"/>
-      <c r="Q296" s="3"/>
-    </row>
-    <row r="297" spans="4:17">
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
-      <c r="F297" s="3"/>
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
-      <c r="I297" s="3"/>
-      <c r="J297" s="3"/>
-      <c r="K297" s="3"/>
-      <c r="L297" s="3"/>
-      <c r="M297" s="3"/>
-      <c r="N297" s="3"/>
-      <c r="O297" s="3"/>
-      <c r="P297" s="3"/>
-      <c r="Q297" s="3"/>
-    </row>
-    <row r="298" spans="4:17">
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
-      <c r="F298" s="3"/>
-      <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
-      <c r="I298" s="3"/>
-      <c r="J298" s="3"/>
-      <c r="K298" s="3"/>
-      <c r="L298" s="3"/>
-      <c r="M298" s="3"/>
-      <c r="N298" s="3"/>
-      <c r="O298" s="3"/>
-      <c r="P298" s="3"/>
-      <c r="Q298" s="3"/>
-    </row>
-    <row r="299" spans="4:17">
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
-      <c r="F299" s="3"/>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
-      <c r="I299" s="3"/>
-      <c r="J299" s="3"/>
-      <c r="K299" s="3"/>
-      <c r="L299" s="3"/>
-      <c r="M299" s="3"/>
-      <c r="N299" s="3"/>
-      <c r="O299" s="3"/>
-      <c r="P299" s="3"/>
-      <c r="Q299" s="3"/>
-    </row>
-    <row r="300" spans="4:17">
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
-      <c r="F300" s="3"/>
-      <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
-      <c r="I300" s="3"/>
-      <c r="J300" s="3"/>
-      <c r="K300" s="3"/>
-      <c r="L300" s="3"/>
-      <c r="M300" s="3"/>
-      <c r="N300" s="3"/>
-      <c r="O300" s="3"/>
-      <c r="P300" s="3"/>
-      <c r="Q300" s="3"/>
-    </row>
-    <row r="301" spans="4:17">
-      <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
-      <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
-      <c r="I301" s="3"/>
-      <c r="J301" s="3"/>
-      <c r="K301" s="3"/>
-      <c r="L301" s="3"/>
-      <c r="M301" s="3"/>
-      <c r="N301" s="3"/>
-      <c r="O301" s="3"/>
-      <c r="P301" s="3"/>
-      <c r="Q301" s="3"/>
-    </row>
-    <row r="302" spans="4:17">
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
-      <c r="F302" s="3"/>
-      <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
-      <c r="I302" s="3"/>
-      <c r="J302" s="3"/>
-      <c r="K302" s="3"/>
-      <c r="L302" s="3"/>
-      <c r="M302" s="3"/>
-      <c r="N302" s="3"/>
-      <c r="O302" s="3"/>
-      <c r="P302" s="3"/>
-      <c r="Q302" s="3"/>
-    </row>
-    <row r="303" spans="4:17">
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
-      <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
-      <c r="I303" s="3"/>
-      <c r="J303" s="3"/>
-      <c r="K303" s="3"/>
-      <c r="L303" s="3"/>
-      <c r="M303" s="3"/>
-      <c r="N303" s="3"/>
-      <c r="O303" s="3"/>
-      <c r="P303" s="3"/>
-      <c r="Q303" s="3"/>
-    </row>
-    <row r="304" spans="4:17">
-      <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
-      <c r="F304" s="3"/>
-      <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
-      <c r="I304" s="3"/>
-      <c r="J304" s="3"/>
-      <c r="K304" s="3"/>
-      <c r="L304" s="3"/>
-      <c r="M304" s="3"/>
-      <c r="N304" s="3"/>
-      <c r="O304" s="3"/>
-      <c r="P304" s="3"/>
-      <c r="Q304" s="3"/>
-    </row>
-    <row r="305" spans="4:17">
-      <c r="D305" s="3"/>
-      <c r="E305" s="3"/>
-      <c r="F305" s="3"/>
-      <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
-      <c r="I305" s="3"/>
-      <c r="J305" s="3"/>
-      <c r="K305" s="3"/>
-      <c r="L305" s="3"/>
-      <c r="M305" s="3"/>
-      <c r="N305" s="3"/>
-      <c r="O305" s="3"/>
-      <c r="P305" s="3"/>
-      <c r="Q305" s="3"/>
-    </row>
-    <row r="306" spans="4:17">
-      <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
-      <c r="F306" s="3"/>
-      <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
-      <c r="I306" s="3"/>
-      <c r="J306" s="3"/>
-      <c r="K306" s="3"/>
-      <c r="L306" s="3"/>
-      <c r="M306" s="3"/>
-      <c r="N306" s="3"/>
-      <c r="O306" s="3"/>
-      <c r="P306" s="3"/>
-      <c r="Q306" s="3"/>
-    </row>
-    <row r="307" spans="4:17">
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
-      <c r="F307" s="3"/>
-      <c r="G307" s="3"/>
-      <c r="H307" s="3"/>
-      <c r="I307" s="3"/>
-      <c r="J307" s="3"/>
-      <c r="K307" s="3"/>
-      <c r="L307" s="3"/>
-      <c r="M307" s="3"/>
-      <c r="N307" s="3"/>
-      <c r="O307" s="3"/>
-      <c r="P307" s="3"/>
-      <c r="Q307" s="3"/>
-    </row>
-    <row r="308" spans="4:17">
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
-      <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
-      <c r="I308" s="3"/>
-      <c r="J308" s="3"/>
-      <c r="K308" s="3"/>
-      <c r="L308" s="3"/>
-      <c r="M308" s="3"/>
-      <c r="N308" s="3"/>
-      <c r="O308" s="3"/>
-      <c r="P308" s="3"/>
-      <c r="Q308" s="3"/>
-    </row>
-    <row r="309" spans="4:17">
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
-      <c r="F309" s="3"/>
-      <c r="G309" s="3"/>
-      <c r="H309" s="3"/>
-      <c r="I309" s="3"/>
-      <c r="J309" s="3"/>
-      <c r="K309" s="3"/>
-      <c r="L309" s="3"/>
-      <c r="M309" s="3"/>
-      <c r="N309" s="3"/>
-      <c r="O309" s="3"/>
-      <c r="P309" s="3"/>
-      <c r="Q309" s="3"/>
-    </row>
-    <row r="310" spans="4:17">
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
-      <c r="I310" s="3"/>
-      <c r="J310" s="3"/>
-      <c r="K310" s="3"/>
-      <c r="L310" s="3"/>
-      <c r="M310" s="3"/>
-      <c r="N310" s="3"/>
-      <c r="O310" s="3"/>
-      <c r="P310" s="3"/>
-      <c r="Q310" s="3"/>
-    </row>
-    <row r="311" spans="4:17">
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
-      <c r="F311" s="3"/>
-      <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
-      <c r="I311" s="3"/>
-      <c r="J311" s="3"/>
-      <c r="K311" s="3"/>
-      <c r="L311" s="3"/>
-      <c r="M311" s="3"/>
-      <c r="N311" s="3"/>
-      <c r="O311" s="3"/>
-      <c r="P311" s="3"/>
-      <c r="Q311" s="3"/>
-    </row>
-    <row r="312" spans="4:17">
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
-      <c r="I312" s="3"/>
-      <c r="J312" s="3"/>
-      <c r="K312" s="3"/>
-      <c r="L312" s="3"/>
-      <c r="M312" s="3"/>
-      <c r="N312" s="3"/>
-      <c r="O312" s="3"/>
-      <c r="P312" s="3"/>
-      <c r="Q312" s="3"/>
-    </row>
-    <row r="313" spans="4:17">
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
-      <c r="F313" s="3"/>
-      <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
-      <c r="I313" s="3"/>
-      <c r="J313" s="3"/>
-      <c r="K313" s="3"/>
-      <c r="L313" s="3"/>
-      <c r="M313" s="3"/>
-      <c r="N313" s="3"/>
-      <c r="O313" s="3"/>
-      <c r="P313" s="3"/>
-      <c r="Q313" s="3"/>
-    </row>
-    <row r="314" spans="4:17">
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
-      <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
-      <c r="I314" s="3"/>
-      <c r="J314" s="3"/>
-      <c r="K314" s="3"/>
-      <c r="L314" s="3"/>
-      <c r="M314" s="3"/>
-      <c r="N314" s="3"/>
-      <c r="O314" s="3"/>
-      <c r="P314" s="3"/>
-      <c r="Q314" s="3"/>
-    </row>
-    <row r="315" spans="4:17">
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="3"/>
-      <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
-      <c r="I315" s="3"/>
-      <c r="J315" s="3"/>
-      <c r="K315" s="3"/>
-      <c r="L315" s="3"/>
-      <c r="M315" s="3"/>
-      <c r="N315" s="3"/>
-      <c r="O315" s="3"/>
-      <c r="P315" s="3"/>
-      <c r="Q315" s="3"/>
-    </row>
-    <row r="316" spans="4:17">
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="3"/>
-      <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
-      <c r="I316" s="3"/>
-      <c r="J316" s="3"/>
-      <c r="K316" s="3"/>
-      <c r="L316" s="3"/>
-      <c r="M316" s="3"/>
-      <c r="N316" s="3"/>
-      <c r="O316" s="3"/>
-      <c r="P316" s="3"/>
-      <c r="Q316" s="3"/>
-    </row>
-    <row r="317" spans="4:17">
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
-      <c r="I317" s="3"/>
-      <c r="J317" s="3"/>
-      <c r="K317" s="3"/>
-      <c r="L317" s="3"/>
-      <c r="M317" s="3"/>
-      <c r="N317" s="3"/>
-      <c r="O317" s="3"/>
-      <c r="P317" s="3"/>
-      <c r="Q317" s="3"/>
-    </row>
-    <row r="318" spans="4:17">
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
-      <c r="I318" s="3"/>
-      <c r="J318" s="3"/>
-      <c r="K318" s="3"/>
-      <c r="L318" s="3"/>
-      <c r="M318" s="3"/>
-      <c r="N318" s="3"/>
-      <c r="O318" s="3"/>
-      <c r="P318" s="3"/>
-      <c r="Q318" s="3"/>
-    </row>
-    <row r="319" spans="4:17">
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
-      <c r="I319" s="3"/>
-      <c r="J319" s="3"/>
-      <c r="K319" s="3"/>
-      <c r="L319" s="3"/>
-      <c r="M319" s="3"/>
-      <c r="N319" s="3"/>
-      <c r="O319" s="3"/>
-      <c r="P319" s="3"/>
-      <c r="Q319" s="3"/>
-    </row>
-    <row r="320" spans="4:17">
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
-      <c r="I320" s="3"/>
-      <c r="J320" s="3"/>
-      <c r="K320" s="3"/>
-      <c r="L320" s="3"/>
-      <c r="M320" s="3"/>
-      <c r="N320" s="3"/>
-      <c r="O320" s="3"/>
-      <c r="P320" s="3"/>
-      <c r="Q320" s="3"/>
-    </row>
-    <row r="321" spans="4:17">
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
-      <c r="I321" s="3"/>
-      <c r="J321" s="3"/>
-      <c r="K321" s="3"/>
-      <c r="L321" s="3"/>
-      <c r="M321" s="3"/>
-      <c r="N321" s="3"/>
-      <c r="O321" s="3"/>
-      <c r="P321" s="3"/>
-      <c r="Q321" s="3"/>
-    </row>
-    <row r="322" spans="4:17">
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
-      <c r="I322" s="3"/>
-      <c r="J322" s="3"/>
-      <c r="K322" s="3"/>
-      <c r="L322" s="3"/>
-      <c r="M322" s="3"/>
-      <c r="N322" s="3"/>
-      <c r="O322" s="3"/>
-      <c r="P322" s="3"/>
-      <c r="Q322" s="3"/>
-    </row>
-    <row r="323" spans="4:17">
-      <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
-      <c r="F323" s="3"/>
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
-      <c r="J323" s="3"/>
-      <c r="K323" s="3"/>
-      <c r="L323" s="3"/>
-      <c r="M323" s="3"/>
-      <c r="N323" s="3"/>
-      <c r="O323" s="3"/>
-      <c r="P323" s="3"/>
-      <c r="Q323" s="3"/>
-    </row>
-    <row r="324" spans="4:17">
-      <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
-      <c r="F324" s="3"/>
-      <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
-      <c r="I324" s="3"/>
-      <c r="J324" s="3"/>
-      <c r="K324" s="3"/>
-      <c r="L324" s="3"/>
-      <c r="M324" s="3"/>
-      <c r="N324" s="3"/>
-      <c r="O324" s="3"/>
-      <c r="P324" s="3"/>
-      <c r="Q324" s="3"/>
-    </row>
-    <row r="325" spans="4:17">
-      <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
-      <c r="F325" s="3"/>
-      <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
-      <c r="I325" s="3"/>
-      <c r="J325" s="3"/>
-      <c r="K325" s="3"/>
-      <c r="L325" s="3"/>
-      <c r="M325" s="3"/>
-      <c r="N325" s="3"/>
-      <c r="O325" s="3"/>
-      <c r="P325" s="3"/>
-      <c r="Q325" s="3"/>
-    </row>
-    <row r="326" spans="4:17">
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="3"/>
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-      <c r="J326" s="3"/>
-      <c r="K326" s="3"/>
-      <c r="L326" s="3"/>
-      <c r="M326" s="3"/>
-      <c r="N326" s="3"/>
-      <c r="O326" s="3"/>
-      <c r="P326" s="3"/>
-      <c r="Q326" s="3"/>
-    </row>
-    <row r="327" spans="4:17">
-      <c r="D327" s="3"/>
-      <c r="E327" s="3"/>
-      <c r="F327" s="3"/>
-      <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
-      <c r="I327" s="3"/>
-      <c r="J327" s="3"/>
-      <c r="K327" s="3"/>
-      <c r="L327" s="3"/>
-      <c r="M327" s="3"/>
-      <c r="N327" s="3"/>
-      <c r="O327" s="3"/>
-      <c r="P327" s="3"/>
-      <c r="Q327" s="3"/>
-    </row>
-    <row r="328" spans="4:17">
-      <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
-      <c r="F328" s="3"/>
-      <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
-      <c r="I328" s="3"/>
-      <c r="J328" s="3"/>
-      <c r="K328" s="3"/>
-      <c r="L328" s="3"/>
-      <c r="M328" s="3"/>
-      <c r="N328" s="3"/>
-      <c r="O328" s="3"/>
-      <c r="P328" s="3"/>
-      <c r="Q328" s="3"/>
-    </row>
-    <row r="329" spans="4:17">
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
-      <c r="I329" s="3"/>
-      <c r="J329" s="3"/>
-      <c r="K329" s="3"/>
-      <c r="L329" s="3"/>
-      <c r="M329" s="3"/>
-      <c r="N329" s="3"/>
-      <c r="O329" s="3"/>
-      <c r="P329" s="3"/>
-      <c r="Q329" s="3"/>
-    </row>
-    <row r="330" spans="4:17">
-      <c r="D330" s="3"/>
-      <c r="E330" s="3"/>
-      <c r="F330" s="3"/>
-      <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
-      <c r="I330" s="3"/>
-      <c r="J330" s="3"/>
-      <c r="K330" s="3"/>
-      <c r="L330" s="3"/>
-      <c r="M330" s="3"/>
-      <c r="N330" s="3"/>
-      <c r="O330" s="3"/>
-      <c r="P330" s="3"/>
-      <c r="Q330" s="3"/>
-    </row>
-    <row r="331" spans="4:17">
-      <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
-      <c r="F331" s="3"/>
-      <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
-      <c r="I331" s="3"/>
-      <c r="J331" s="3"/>
-      <c r="K331" s="3"/>
-      <c r="L331" s="3"/>
-      <c r="M331" s="3"/>
-      <c r="N331" s="3"/>
-      <c r="O331" s="3"/>
-      <c r="P331" s="3"/>
-      <c r="Q331" s="3"/>
-    </row>
-    <row r="332" spans="4:17">
-      <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
-      <c r="F332" s="3"/>
-      <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
-      <c r="I332" s="3"/>
-      <c r="J332" s="3"/>
-      <c r="K332" s="3"/>
-      <c r="L332" s="3"/>
-      <c r="M332" s="3"/>
-      <c r="N332" s="3"/>
-      <c r="O332" s="3"/>
-      <c r="P332" s="3"/>
-      <c r="Q332" s="3"/>
-    </row>
-    <row r="333" spans="4:17">
-      <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
-      <c r="F333" s="3"/>
-      <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
-      <c r="I333" s="3"/>
-      <c r="J333" s="3"/>
-      <c r="K333" s="3"/>
-      <c r="L333" s="3"/>
-      <c r="M333" s="3"/>
-      <c r="N333" s="3"/>
-      <c r="O333" s="3"/>
-      <c r="P333" s="3"/>
-      <c r="Q333" s="3"/>
-    </row>
-    <row r="334" spans="4:17">
-      <c r="D334" s="3"/>
-      <c r="E334" s="3"/>
-      <c r="F334" s="3"/>
-      <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
-      <c r="I334" s="3"/>
-      <c r="J334" s="3"/>
-      <c r="K334" s="3"/>
-      <c r="L334" s="3"/>
-      <c r="M334" s="3"/>
-      <c r="N334" s="3"/>
-      <c r="O334" s="3"/>
-      <c r="P334" s="3"/>
-      <c r="Q334" s="3"/>
-    </row>
-    <row r="335" spans="4:17">
-      <c r="D335" s="3"/>
-      <c r="E335" s="3"/>
-      <c r="F335" s="3"/>
-      <c r="G335" s="3"/>
-      <c r="H335" s="3"/>
-      <c r="I335" s="3"/>
-      <c r="J335" s="3"/>
-      <c r="K335" s="3"/>
-      <c r="L335" s="3"/>
-      <c r="M335" s="3"/>
-      <c r="N335" s="3"/>
-      <c r="O335" s="3"/>
-      <c r="P335" s="3"/>
-      <c r="Q335" s="3"/>
-    </row>
-    <row r="336" spans="4:17">
-      <c r="D336" s="3"/>
-      <c r="E336" s="3"/>
-      <c r="F336" s="3"/>
-      <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
-      <c r="I336" s="3"/>
-      <c r="J336" s="3"/>
-      <c r="K336" s="3"/>
-      <c r="L336" s="3"/>
-      <c r="M336" s="3"/>
-      <c r="N336" s="3"/>
-      <c r="O336" s="3"/>
-      <c r="P336" s="3"/>
-      <c r="Q336" s="3"/>
-    </row>
-    <row r="337" spans="4:17">
-      <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
-      <c r="F337" s="3"/>
-      <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
-      <c r="I337" s="3"/>
-      <c r="J337" s="3"/>
-      <c r="K337" s="3"/>
-      <c r="L337" s="3"/>
-      <c r="M337" s="3"/>
-      <c r="N337" s="3"/>
-      <c r="O337" s="3"/>
-      <c r="P337" s="3"/>
-      <c r="Q337" s="3"/>
-    </row>
-    <row r="338" spans="4:17">
-      <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
-      <c r="F338" s="3"/>
-      <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
-      <c r="I338" s="3"/>
-      <c r="J338" s="3"/>
-      <c r="K338" s="3"/>
-      <c r="L338" s="3"/>
-      <c r="M338" s="3"/>
-      <c r="N338" s="3"/>
-      <c r="O338" s="3"/>
-      <c r="P338" s="3"/>
-      <c r="Q338" s="3"/>
-    </row>
-    <row r="339" spans="4:17">
-      <c r="D339" s="3"/>
-      <c r="E339" s="3"/>
-      <c r="F339" s="3"/>
-      <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
-      <c r="I339" s="3"/>
-      <c r="J339" s="3"/>
-      <c r="K339" s="3"/>
-      <c r="L339" s="3"/>
-      <c r="M339" s="3"/>
-      <c r="N339" s="3"/>
-      <c r="O339" s="3"/>
-      <c r="P339" s="3"/>
-      <c r="Q339" s="3"/>
-    </row>
-    <row r="340" spans="4:17">
-      <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
-      <c r="F340" s="3"/>
-      <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
-      <c r="I340" s="3"/>
-      <c r="J340" s="3"/>
-      <c r="K340" s="3"/>
-      <c r="L340" s="3"/>
-      <c r="M340" s="3"/>
-      <c r="N340" s="3"/>
-      <c r="O340" s="3"/>
-      <c r="P340" s="3"/>
-      <c r="Q340" s="3"/>
-    </row>
-    <row r="341" spans="4:17">
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
-      <c r="J341" s="3"/>
-      <c r="K341" s="3"/>
-      <c r="L341" s="3"/>
-      <c r="M341" s="3"/>
-      <c r="N341" s="3"/>
-      <c r="O341" s="3"/>
-      <c r="P341" s="3"/>
-      <c r="Q341" s="3"/>
-    </row>
-    <row r="342" spans="4:17">
-      <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
-      <c r="F342" s="3"/>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
-      <c r="I342" s="3"/>
-      <c r="J342" s="3"/>
-      <c r="K342" s="3"/>
-      <c r="L342" s="3"/>
-      <c r="M342" s="3"/>
-      <c r="N342" s="3"/>
-      <c r="O342" s="3"/>
-      <c r="P342" s="3"/>
-      <c r="Q342" s="3"/>
-    </row>
-    <row r="343" spans="4:17">
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
-      <c r="I343" s="3"/>
-      <c r="J343" s="3"/>
-      <c r="K343" s="3"/>
-      <c r="L343" s="3"/>
-      <c r="M343" s="3"/>
-      <c r="N343" s="3"/>
-      <c r="O343" s="3"/>
-      <c r="P343" s="3"/>
-      <c r="Q343" s="3"/>
-    </row>
-    <row r="344" spans="4:17">
-      <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
-      <c r="F344" s="3"/>
-      <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
-      <c r="I344" s="3"/>
-      <c r="J344" s="3"/>
-      <c r="K344" s="3"/>
-      <c r="L344" s="3"/>
-      <c r="M344" s="3"/>
-      <c r="N344" s="3"/>
-      <c r="O344" s="3"/>
-      <c r="P344" s="3"/>
-      <c r="Q344" s="3"/>
-    </row>
-    <row r="345" spans="4:17">
-      <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
-      <c r="F345" s="3"/>
-      <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
-      <c r="I345" s="3"/>
-      <c r="J345" s="3"/>
-      <c r="K345" s="3"/>
-      <c r="L345" s="3"/>
-      <c r="M345" s="3"/>
-      <c r="N345" s="3"/>
-      <c r="O345" s="3"/>
-      <c r="P345" s="3"/>
-      <c r="Q345" s="3"/>
-    </row>
-    <row r="346" spans="4:17">
-      <c r="D346" s="3"/>
-      <c r="E346" s="3"/>
-      <c r="F346" s="3"/>
-      <c r="G346" s="3"/>
-      <c r="H346" s="3"/>
-      <c r="I346" s="3"/>
-      <c r="J346" s="3"/>
-      <c r="K346" s="3"/>
-      <c r="L346" s="3"/>
-      <c r="M346" s="3"/>
-      <c r="N346" s="3"/>
-      <c r="O346" s="3"/>
-      <c r="P346" s="3"/>
-      <c r="Q346" s="3"/>
-    </row>
-    <row r="347" spans="4:17">
-      <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
-      <c r="F347" s="3"/>
-      <c r="G347" s="3"/>
-      <c r="H347" s="3"/>
-      <c r="I347" s="3"/>
-      <c r="J347" s="3"/>
-      <c r="K347" s="3"/>
-      <c r="L347" s="3"/>
-      <c r="M347" s="3"/>
-      <c r="N347" s="3"/>
-      <c r="O347" s="3"/>
-      <c r="P347" s="3"/>
-      <c r="Q347" s="3"/>
-    </row>
-    <row r="348" spans="4:17">
-      <c r="D348" s="3"/>
-      <c r="E348" s="3"/>
-      <c r="F348" s="3"/>
-      <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
-      <c r="I348" s="3"/>
-      <c r="J348" s="3"/>
-      <c r="K348" s="3"/>
-      <c r="L348" s="3"/>
-      <c r="M348" s="3"/>
-      <c r="N348" s="3"/>
-      <c r="O348" s="3"/>
-      <c r="P348" s="3"/>
-      <c r="Q348" s="3"/>
-    </row>
-    <row r="349" spans="4:17">
-      <c r="D349" s="3"/>
-      <c r="E349" s="3"/>
-      <c r="F349" s="3"/>
-      <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
-      <c r="I349" s="3"/>
-      <c r="J349" s="3"/>
-      <c r="K349" s="3"/>
-      <c r="L349" s="3"/>
-      <c r="M349" s="3"/>
-      <c r="N349" s="3"/>
-      <c r="O349" s="3"/>
-      <c r="P349" s="3"/>
-      <c r="Q349" s="3"/>
-    </row>
-    <row r="350" spans="4:17">
-      <c r="D350" s="3"/>
-      <c r="E350" s="3"/>
-      <c r="F350" s="3"/>
-      <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
-      <c r="I350" s="3"/>
-      <c r="J350" s="3"/>
-      <c r="K350" s="3"/>
-      <c r="L350" s="3"/>
-      <c r="M350" s="3"/>
-      <c r="N350" s="3"/>
-      <c r="O350" s="3"/>
-      <c r="P350" s="3"/>
-      <c r="Q350" s="3"/>
-    </row>
-    <row r="351" spans="4:17">
-      <c r="D351" s="3"/>
-      <c r="E351" s="3"/>
-      <c r="F351" s="3"/>
-      <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
-      <c r="I351" s="3"/>
-      <c r="J351" s="3"/>
-      <c r="K351" s="3"/>
-      <c r="L351" s="3"/>
-      <c r="M351" s="3"/>
-      <c r="N351" s="3"/>
-      <c r="O351" s="3"/>
-      <c r="P351" s="3"/>
-      <c r="Q351" s="3"/>
-    </row>
-    <row r="352" spans="4:17">
-      <c r="D352" s="3"/>
-      <c r="E352" s="3"/>
-      <c r="F352" s="3"/>
-      <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
-      <c r="I352" s="3"/>
-      <c r="J352" s="3"/>
-      <c r="K352" s="3"/>
-      <c r="L352" s="3"/>
-      <c r="M352" s="3"/>
-      <c r="N352" s="3"/>
-      <c r="O352" s="3"/>
-      <c r="P352" s="3"/>
-      <c r="Q352" s="3"/>
-    </row>
-    <row r="353" spans="4:17">
-      <c r="D353" s="3"/>
-      <c r="E353" s="3"/>
-      <c r="F353" s="3"/>
-      <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
-      <c r="I353" s="3"/>
-      <c r="J353" s="3"/>
-      <c r="K353" s="3"/>
-      <c r="L353" s="3"/>
-      <c r="M353" s="3"/>
-      <c r="N353" s="3"/>
-      <c r="O353" s="3"/>
-      <c r="P353" s="3"/>
-      <c r="Q353" s="3"/>
-    </row>
-    <row r="354" spans="4:17">
-      <c r="D354" s="3"/>
-      <c r="E354" s="3"/>
-      <c r="F354" s="3"/>
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
-      <c r="I354" s="3"/>
-      <c r="J354" s="3"/>
-      <c r="K354" s="3"/>
-      <c r="L354" s="3"/>
-      <c r="M354" s="3"/>
-      <c r="N354" s="3"/>
-      <c r="O354" s="3"/>
-      <c r="P354" s="3"/>
-      <c r="Q354" s="3"/>
-    </row>
-    <row r="355" spans="4:17">
-      <c r="D355" s="3"/>
-      <c r="E355" s="3"/>
-      <c r="F355" s="3"/>
-      <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
-      <c r="I355" s="3"/>
-      <c r="J355" s="3"/>
-      <c r="K355" s="3"/>
-      <c r="L355" s="3"/>
-      <c r="M355" s="3"/>
-      <c r="N355" s="3"/>
-      <c r="O355" s="3"/>
-      <c r="P355" s="3"/>
-      <c r="Q355" s="3"/>
-    </row>
-    <row r="356" spans="4:17">
-      <c r="D356" s="3"/>
-      <c r="E356" s="3"/>
-      <c r="F356" s="3"/>
-      <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
-      <c r="I356" s="3"/>
-      <c r="J356" s="3"/>
-      <c r="K356" s="3"/>
-      <c r="L356" s="3"/>
-      <c r="M356" s="3"/>
-      <c r="N356" s="3"/>
-      <c r="O356" s="3"/>
-      <c r="P356" s="3"/>
-      <c r="Q356" s="3"/>
-    </row>
-    <row r="357" spans="4:17">
-      <c r="D357" s="3"/>
-      <c r="E357" s="3"/>
-      <c r="F357" s="3"/>
-      <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
-      <c r="I357" s="3"/>
-      <c r="J357" s="3"/>
-      <c r="K357" s="3"/>
-      <c r="L357" s="3"/>
-      <c r="M357" s="3"/>
-      <c r="N357" s="3"/>
-      <c r="O357" s="3"/>
-      <c r="P357" s="3"/>
-      <c r="Q357" s="3"/>
-    </row>
-    <row r="358" spans="4:17">
-      <c r="D358" s="3"/>
-      <c r="E358" s="3"/>
-      <c r="F358" s="3"/>
-      <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
-      <c r="I358" s="3"/>
-      <c r="J358" s="3"/>
-      <c r="K358" s="3"/>
-      <c r="L358" s="3"/>
-      <c r="M358" s="3"/>
-      <c r="N358" s="3"/>
-      <c r="O358" s="3"/>
-      <c r="P358" s="3"/>
-      <c r="Q358" s="3"/>
-    </row>
-    <row r="359" spans="4:17">
-      <c r="D359" s="3"/>
-      <c r="E359" s="3"/>
-      <c r="F359" s="3"/>
-      <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
-      <c r="I359" s="3"/>
-      <c r="J359" s="3"/>
-      <c r="K359" s="3"/>
-      <c r="L359" s="3"/>
-      <c r="M359" s="3"/>
-      <c r="N359" s="3"/>
-      <c r="O359" s="3"/>
-      <c r="P359" s="3"/>
-      <c r="Q359" s="3"/>
-    </row>
-    <row r="360" spans="4:17">
-      <c r="D360" s="3"/>
-      <c r="E360" s="3"/>
-      <c r="F360" s="3"/>
-      <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
-      <c r="I360" s="3"/>
-      <c r="J360" s="3"/>
-      <c r="K360" s="3"/>
-      <c r="L360" s="3"/>
-      <c r="M360" s="3"/>
-      <c r="N360" s="3"/>
-      <c r="O360" s="3"/>
-      <c r="P360" s="3"/>
-      <c r="Q360" s="3"/>
-    </row>
-    <row r="361" spans="4:17">
-      <c r="D361" s="3"/>
-      <c r="E361" s="3"/>
-      <c r="F361" s="3"/>
-      <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
-      <c r="I361" s="3"/>
-      <c r="J361" s="3"/>
-      <c r="K361" s="3"/>
-      <c r="L361" s="3"/>
-      <c r="M361" s="3"/>
-      <c r="N361" s="3"/>
-      <c r="O361" s="3"/>
-      <c r="P361" s="3"/>
-      <c r="Q361" s="3"/>
-    </row>
-    <row r="362" spans="4:17">
-      <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
-      <c r="F362" s="3"/>
-      <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
-      <c r="I362" s="3"/>
-      <c r="J362" s="3"/>
-      <c r="K362" s="3"/>
-      <c r="L362" s="3"/>
-      <c r="M362" s="3"/>
-      <c r="N362" s="3"/>
-      <c r="O362" s="3"/>
-      <c r="P362" s="3"/>
-      <c r="Q362" s="3"/>
-    </row>
-    <row r="363" spans="4:17">
-      <c r="D363" s="3"/>
-      <c r="E363" s="3"/>
-      <c r="F363" s="3"/>
-      <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
-      <c r="J363" s="3"/>
-      <c r="K363" s="3"/>
-      <c r="L363" s="3"/>
-      <c r="M363" s="3"/>
-      <c r="N363" s="3"/>
-      <c r="O363" s="3"/>
-      <c r="P363" s="3"/>
-      <c r="Q363" s="3"/>
-    </row>
-    <row r="364" spans="4:17">
-      <c r="D364" s="3"/>
-      <c r="E364" s="3"/>
-      <c r="F364" s="3"/>
-      <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
-      <c r="I364" s="3"/>
-      <c r="J364" s="3"/>
-      <c r="K364" s="3"/>
-      <c r="L364" s="3"/>
-      <c r="M364" s="3"/>
-      <c r="N364" s="3"/>
-      <c r="O364" s="3"/>
-      <c r="P364" s="3"/>
-      <c r="Q364" s="3"/>
-    </row>
-    <row r="365" spans="4:17">
-      <c r="D365" s="3"/>
-      <c r="E365" s="3"/>
-      <c r="F365" s="3"/>
-      <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
-      <c r="I365" s="3"/>
-      <c r="J365" s="3"/>
-      <c r="K365" s="3"/>
-      <c r="L365" s="3"/>
-      <c r="M365" s="3"/>
-      <c r="N365" s="3"/>
-      <c r="O365" s="3"/>
-      <c r="P365" s="3"/>
-      <c r="Q365" s="3"/>
-    </row>
-    <row r="366" spans="4:17">
-      <c r="D366" s="3"/>
-      <c r="E366" s="3"/>
-      <c r="F366" s="3"/>
-      <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
-      <c r="J366" s="3"/>
-      <c r="K366" s="3"/>
-      <c r="L366" s="3"/>
-      <c r="M366" s="3"/>
-      <c r="N366" s="3"/>
-      <c r="O366" s="3"/>
-      <c r="P366" s="3"/>
-      <c r="Q366" s="3"/>
-    </row>
-    <row r="367" spans="4:17">
-      <c r="D367" s="3"/>
-      <c r="E367" s="3"/>
-      <c r="F367" s="3"/>
-      <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
-      <c r="J367" s="3"/>
-      <c r="K367" s="3"/>
-      <c r="L367" s="3"/>
-      <c r="M367" s="3"/>
-      <c r="N367" s="3"/>
-      <c r="O367" s="3"/>
-      <c r="P367" s="3"/>
-      <c r="Q367" s="3"/>
-    </row>
-    <row r="368" spans="4:17">
-      <c r="D368" s="3"/>
-      <c r="E368" s="3"/>
-      <c r="F368" s="3"/>
-      <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
-      <c r="I368" s="3"/>
-      <c r="J368" s="3"/>
-      <c r="K368" s="3"/>
-      <c r="L368" s="3"/>
-      <c r="M368" s="3"/>
-      <c r="N368" s="3"/>
-      <c r="O368" s="3"/>
-      <c r="P368" s="3"/>
-      <c r="Q368" s="3"/>
-    </row>
-    <row r="369" spans="4:17">
-      <c r="D369" s="3"/>
-      <c r="E369" s="3"/>
-      <c r="F369" s="3"/>
-      <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
-      <c r="I369" s="3"/>
-      <c r="J369" s="3"/>
-      <c r="K369" s="3"/>
-      <c r="L369" s="3"/>
-      <c r="M369" s="3"/>
-      <c r="N369" s="3"/>
-      <c r="O369" s="3"/>
-      <c r="P369" s="3"/>
-      <c r="Q369" s="3"/>
-    </row>
-    <row r="370" spans="4:17">
-      <c r="D370" s="3"/>
-      <c r="E370" s="3"/>
-      <c r="F370" s="3"/>
-      <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
-      <c r="I370" s="3"/>
-      <c r="J370" s="3"/>
-      <c r="K370" s="3"/>
-      <c r="L370" s="3"/>
-      <c r="M370" s="3"/>
-      <c r="N370" s="3"/>
-      <c r="O370" s="3"/>
-      <c r="P370" s="3"/>
-      <c r="Q370" s="3"/>
-    </row>
-    <row r="371" spans="4:17">
-      <c r="D371" s="3"/>
-      <c r="E371" s="3"/>
-      <c r="F371" s="3"/>
-      <c r="G371" s="3"/>
-      <c r="H371" s="3"/>
-      <c r="I371" s="3"/>
-      <c r="J371" s="3"/>
-      <c r="K371" s="3"/>
-      <c r="L371" s="3"/>
-      <c r="M371" s="3"/>
-      <c r="N371" s="3"/>
-      <c r="O371" s="3"/>
-      <c r="P371" s="3"/>
-      <c r="Q371" s="3"/>
-    </row>
-    <row r="372" spans="4:17">
-      <c r="D372" s="3"/>
-      <c r="E372" s="3"/>
-      <c r="F372" s="3"/>
-      <c r="G372" s="3"/>
-      <c r="H372" s="3"/>
-      <c r="I372" s="3"/>
-      <c r="J372" s="3"/>
-      <c r="K372" s="3"/>
-      <c r="L372" s="3"/>
-      <c r="M372" s="3"/>
-      <c r="N372" s="3"/>
-      <c r="O372" s="3"/>
-      <c r="P372" s="3"/>
-      <c r="Q372" s="3"/>
-    </row>
-    <row r="373" spans="4:17">
-      <c r="D373" s="3"/>
-      <c r="E373" s="3"/>
-      <c r="F373" s="3"/>
-      <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-      <c r="J373" s="3"/>
-      <c r="K373" s="3"/>
-      <c r="L373" s="3"/>
-      <c r="M373" s="3"/>
-      <c r="N373" s="3"/>
-      <c r="O373" s="3"/>
-      <c r="P373" s="3"/>
-      <c r="Q373" s="3"/>
-    </row>
-    <row r="374" spans="4:17">
-      <c r="D374" s="3"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-      <c r="J374" s="3"/>
-      <c r="K374" s="3"/>
-      <c r="L374" s="3"/>
-      <c r="M374" s="3"/>
-      <c r="N374" s="3"/>
-      <c r="O374" s="3"/>
-      <c r="P374" s="3"/>
-      <c r="Q374" s="3"/>
-    </row>
-    <row r="375" spans="4:17">
-      <c r="D375" s="3"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
-      <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
-      <c r="K375" s="3"/>
-      <c r="L375" s="3"/>
-      <c r="M375" s="3"/>
-      <c r="N375" s="3"/>
-      <c r="O375" s="3"/>
-      <c r="P375" s="3"/>
-      <c r="Q375" s="3"/>
-    </row>
-    <row r="376" spans="4:17">
-      <c r="D376" s="3"/>
-      <c r="E376" s="3"/>
-      <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
-      <c r="I376" s="3"/>
-      <c r="J376" s="3"/>
-      <c r="K376" s="3"/>
-      <c r="L376" s="3"/>
-      <c r="M376" s="3"/>
-      <c r="N376" s="3"/>
-      <c r="O376" s="3"/>
-      <c r="P376" s="3"/>
-      <c r="Q376" s="3"/>
-    </row>
-    <row r="377" spans="4:17">
-      <c r="D377" s="3"/>
-      <c r="E377" s="3"/>
-      <c r="F377" s="3"/>
-      <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
-      <c r="I377" s="3"/>
-      <c r="J377" s="3"/>
-      <c r="K377" s="3"/>
-      <c r="L377" s="3"/>
-      <c r="M377" s="3"/>
-      <c r="N377" s="3"/>
-      <c r="O377" s="3"/>
-      <c r="P377" s="3"/>
-      <c r="Q377" s="3"/>
-    </row>
-    <row r="378" spans="4:17">
-      <c r="D378" s="3"/>
-      <c r="E378" s="3"/>
-      <c r="F378" s="3"/>
-      <c r="G378" s="3"/>
-      <c r="H378" s="3"/>
-      <c r="I378" s="3"/>
-      <c r="J378" s="3"/>
-      <c r="K378" s="3"/>
-      <c r="L378" s="3"/>
-      <c r="M378" s="3"/>
-      <c r="N378" s="3"/>
-      <c r="O378" s="3"/>
-      <c r="P378" s="3"/>
-      <c r="Q378" s="3"/>
-    </row>
-    <row r="379" spans="4:17">
-      <c r="D379" s="3"/>
-      <c r="E379" s="3"/>
-      <c r="F379" s="3"/>
-      <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
-      <c r="J379" s="3"/>
-      <c r="K379" s="3"/>
-      <c r="L379" s="3"/>
-      <c r="M379" s="3"/>
-      <c r="N379" s="3"/>
-      <c r="O379" s="3"/>
-      <c r="P379" s="3"/>
-      <c r="Q379" s="3"/>
-    </row>
-    <row r="380" spans="4:17">
-      <c r="D380" s="3"/>
-      <c r="E380" s="3"/>
-      <c r="F380" s="3"/>
-      <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
-      <c r="I380" s="3"/>
-      <c r="J380" s="3"/>
-      <c r="K380" s="3"/>
-      <c r="L380" s="3"/>
-      <c r="M380" s="3"/>
-      <c r="N380" s="3"/>
-      <c r="O380" s="3"/>
-      <c r="P380" s="3"/>
-      <c r="Q380" s="3"/>
-    </row>
-    <row r="381" spans="4:17">
-      <c r="D381" s="3"/>
-      <c r="E381" s="3"/>
-      <c r="F381" s="3"/>
-      <c r="G381" s="3"/>
-      <c r="H381" s="3"/>
-      <c r="I381" s="3"/>
-      <c r="J381" s="3"/>
-      <c r="K381" s="3"/>
-      <c r="L381" s="3"/>
-      <c r="M381" s="3"/>
-      <c r="N381" s="3"/>
-      <c r="O381" s="3"/>
-      <c r="P381" s="3"/>
-      <c r="Q381" s="3"/>
-    </row>
-    <row r="382" spans="4:17">
-      <c r="D382" s="3"/>
-      <c r="E382" s="3"/>
-      <c r="F382" s="3"/>
-      <c r="G382" s="3"/>
-      <c r="H382" s="3"/>
-      <c r="I382" s="3"/>
-      <c r="J382" s="3"/>
-      <c r="K382" s="3"/>
-      <c r="L382" s="3"/>
-      <c r="M382" s="3"/>
-      <c r="N382" s="3"/>
-      <c r="O382" s="3"/>
-      <c r="P382" s="3"/>
-      <c r="Q382" s="3"/>
-    </row>
-    <row r="383" spans="4:17">
-      <c r="D383" s="3"/>
-      <c r="E383" s="3"/>
-      <c r="F383" s="3"/>
-      <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
-      <c r="I383" s="3"/>
-      <c r="J383" s="3"/>
-      <c r="K383" s="3"/>
-      <c r="L383" s="3"/>
-      <c r="M383" s="3"/>
-      <c r="N383" s="3"/>
-      <c r="O383" s="3"/>
-      <c r="P383" s="3"/>
-      <c r="Q383" s="3"/>
-    </row>
-    <row r="384" spans="4:17">
-      <c r="D384" s="3"/>
-      <c r="E384" s="3"/>
-      <c r="F384" s="3"/>
-      <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
-      <c r="I384" s="3"/>
-      <c r="J384" s="3"/>
-      <c r="K384" s="3"/>
-      <c r="L384" s="3"/>
-      <c r="M384" s="3"/>
-      <c r="N384" s="3"/>
-      <c r="O384" s="3"/>
-      <c r="P384" s="3"/>
-      <c r="Q384" s="3"/>
-    </row>
-    <row r="385" spans="4:17">
-      <c r="D385" s="3"/>
-      <c r="E385" s="3"/>
-      <c r="F385" s="3"/>
-      <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
-      <c r="I385" s="3"/>
-      <c r="J385" s="3"/>
-      <c r="K385" s="3"/>
-      <c r="L385" s="3"/>
-      <c r="M385" s="3"/>
-      <c r="N385" s="3"/>
-      <c r="O385" s="3"/>
-      <c r="P385" s="3"/>
-      <c r="Q385" s="3"/>
-    </row>
-    <row r="386" spans="4:17">
-      <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
-      <c r="F386" s="3"/>
-      <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
-      <c r="J386" s="3"/>
-      <c r="K386" s="3"/>
-      <c r="L386" s="3"/>
-      <c r="M386" s="3"/>
-      <c r="N386" s="3"/>
-      <c r="O386" s="3"/>
-      <c r="P386" s="3"/>
-      <c r="Q386" s="3"/>
-    </row>
-    <row r="387" spans="4:17">
-      <c r="D387" s="3"/>
-      <c r="E387" s="3"/>
-      <c r="F387" s="3"/>
-      <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
-      <c r="I387" s="3"/>
-      <c r="J387" s="3"/>
-      <c r="K387" s="3"/>
-      <c r="L387" s="3"/>
-      <c r="M387" s="3"/>
-      <c r="N387" s="3"/>
-      <c r="O387" s="3"/>
-      <c r="P387" s="3"/>
-      <c r="Q387" s="3"/>
-    </row>
-    <row r="388" spans="4:17">
-      <c r="D388" s="3"/>
-      <c r="E388" s="3"/>
-      <c r="F388" s="3"/>
-      <c r="G388" s="3"/>
-      <c r="H388" s="3"/>
-      <c r="I388" s="3"/>
-      <c r="J388" s="3"/>
-      <c r="K388" s="3"/>
-      <c r="L388" s="3"/>
-      <c r="M388" s="3"/>
-      <c r="N388" s="3"/>
-      <c r="O388" s="3"/>
-      <c r="P388" s="3"/>
-      <c r="Q388" s="3"/>
-    </row>
-    <row r="389" spans="4:17">
-      <c r="D389" s="3"/>
-      <c r="E389" s="3"/>
-      <c r="F389" s="3"/>
-      <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
-      <c r="I389" s="3"/>
-      <c r="J389" s="3"/>
-      <c r="K389" s="3"/>
-      <c r="L389" s="3"/>
-      <c r="M389" s="3"/>
-      <c r="N389" s="3"/>
-      <c r="O389" s="3"/>
-      <c r="P389" s="3"/>
-      <c r="Q389" s="3"/>
-    </row>
-    <row r="390" spans="4:17">
-      <c r="D390" s="3"/>
-      <c r="E390" s="3"/>
-      <c r="F390" s="3"/>
-      <c r="G390" s="3"/>
-      <c r="H390" s="3"/>
-      <c r="I390" s="3"/>
-      <c r="J390" s="3"/>
-      <c r="K390" s="3"/>
-      <c r="L390" s="3"/>
-      <c r="M390" s="3"/>
-      <c r="N390" s="3"/>
-      <c r="O390" s="3"/>
-      <c r="P390" s="3"/>
-      <c r="Q390" s="3"/>
-    </row>
-    <row r="391" spans="4:17">
-      <c r="D391" s="3"/>
-      <c r="E391" s="3"/>
-      <c r="F391" s="3"/>
-      <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
-      <c r="I391" s="3"/>
-      <c r="J391" s="3"/>
-      <c r="K391" s="3"/>
-      <c r="L391" s="3"/>
-      <c r="M391" s="3"/>
-      <c r="N391" s="3"/>
-      <c r="O391" s="3"/>
-      <c r="P391" s="3"/>
-      <c r="Q391" s="3"/>
-    </row>
-    <row r="392" spans="4:17">
-      <c r="D392" s="3"/>
-      <c r="E392" s="3"/>
-      <c r="F392" s="3"/>
-      <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
-      <c r="J392" s="3"/>
-      <c r="K392" s="3"/>
-      <c r="L392" s="3"/>
-      <c r="M392" s="3"/>
-      <c r="N392" s="3"/>
-      <c r="O392" s="3"/>
-      <c r="P392" s="3"/>
-      <c r="Q392" s="3"/>
-    </row>
-    <row r="393" spans="4:17">
-      <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
-      <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
-      <c r="I393" s="3"/>
-      <c r="J393" s="3"/>
-      <c r="K393" s="3"/>
-      <c r="L393" s="3"/>
-      <c r="M393" s="3"/>
-      <c r="N393" s="3"/>
-      <c r="O393" s="3"/>
-      <c r="P393" s="3"/>
-      <c r="Q393" s="3"/>
-    </row>
-    <row r="394" spans="4:17">
-      <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
-      <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
-      <c r="J394" s="3"/>
-      <c r="K394" s="3"/>
-      <c r="L394" s="3"/>
-      <c r="M394" s="3"/>
-      <c r="N394" s="3"/>
-      <c r="O394" s="3"/>
-      <c r="P394" s="3"/>
-      <c r="Q394" s="3"/>
-    </row>
-    <row r="395" spans="4:17">
-      <c r="D395" s="3"/>
-      <c r="E395" s="3"/>
-      <c r="F395" s="3"/>
-      <c r="G395" s="3"/>
-      <c r="H395" s="3"/>
-      <c r="I395" s="3"/>
-      <c r="J395" s="3"/>
-      <c r="K395" s="3"/>
-      <c r="L395" s="3"/>
-      <c r="M395" s="3"/>
-      <c r="N395" s="3"/>
-      <c r="O395" s="3"/>
-      <c r="P395" s="3"/>
-      <c r="Q395" s="3"/>
-    </row>
-    <row r="396" spans="4:17">
-      <c r="D396" s="3"/>
-      <c r="E396" s="3"/>
-      <c r="F396" s="3"/>
-      <c r="G396" s="3"/>
-      <c r="H396" s="3"/>
-      <c r="I396" s="3"/>
-      <c r="J396" s="3"/>
-      <c r="K396" s="3"/>
-      <c r="L396" s="3"/>
-      <c r="M396" s="3"/>
-      <c r="N396" s="3"/>
-      <c r="O396" s="3"/>
-      <c r="P396" s="3"/>
-      <c r="Q396" s="3"/>
-    </row>
-    <row r="397" spans="4:17">
-      <c r="D397" s="3"/>
-      <c r="E397" s="3"/>
-      <c r="F397" s="3"/>
-      <c r="G397" s="3"/>
-      <c r="H397" s="3"/>
-      <c r="I397" s="3"/>
-      <c r="J397" s="3"/>
-      <c r="K397" s="3"/>
-      <c r="L397" s="3"/>
-      <c r="M397" s="3"/>
-      <c r="N397" s="3"/>
-      <c r="O397" s="3"/>
-      <c r="P397" s="3"/>
-      <c r="Q397" s="3"/>
-    </row>
-    <row r="398" spans="4:17">
-      <c r="D398" s="3"/>
-      <c r="E398" s="3"/>
-      <c r="F398" s="3"/>
-      <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
-      <c r="I398" s="3"/>
-      <c r="J398" s="3"/>
-      <c r="K398" s="3"/>
-      <c r="L398" s="3"/>
-      <c r="M398" s="3"/>
-      <c r="N398" s="3"/>
-      <c r="O398" s="3"/>
-      <c r="P398" s="3"/>
-      <c r="Q398" s="3"/>
-    </row>
-    <row r="399" spans="4:17">
-      <c r="D399" s="3"/>
-      <c r="E399" s="3"/>
-      <c r="F399" s="3"/>
-      <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
-      <c r="I399" s="3"/>
-      <c r="J399" s="3"/>
-      <c r="K399" s="3"/>
-      <c r="L399" s="3"/>
-      <c r="M399" s="3"/>
-      <c r="N399" s="3"/>
-      <c r="O399" s="3"/>
-      <c r="P399" s="3"/>
-      <c r="Q399" s="3"/>
-    </row>
-    <row r="400" spans="4:17">
-      <c r="D400" s="3"/>
-      <c r="E400" s="3"/>
-      <c r="F400" s="3"/>
-      <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
-      <c r="I400" s="3"/>
-      <c r="J400" s="3"/>
-      <c r="K400" s="3"/>
-      <c r="L400" s="3"/>
-      <c r="M400" s="3"/>
-      <c r="N400" s="3"/>
-      <c r="O400" s="3"/>
-      <c r="P400" s="3"/>
-      <c r="Q400" s="3"/>
-    </row>
+    <row r="289" s="3" customFormat="1"/>
+    <row r="290" s="3" customFormat="1"/>
+    <row r="291" s="3" customFormat="1"/>
+    <row r="292" s="3" customFormat="1"/>
+    <row r="293" s="3" customFormat="1"/>
+    <row r="294" s="3" customFormat="1"/>
+    <row r="295" s="3" customFormat="1"/>
+    <row r="296" s="3" customFormat="1"/>
+    <row r="297" s="3" customFormat="1"/>
+    <row r="298" s="3" customFormat="1"/>
+    <row r="299" s="3" customFormat="1"/>
+    <row r="300" s="3" customFormat="1"/>
+    <row r="301" s="3" customFormat="1"/>
+    <row r="302" s="3" customFormat="1"/>
+    <row r="303" s="3" customFormat="1"/>
+    <row r="304" s="3" customFormat="1"/>
+    <row r="305" s="3" customFormat="1"/>
+    <row r="306" s="3" customFormat="1"/>
+    <row r="307" s="3" customFormat="1"/>
+    <row r="308" s="3" customFormat="1"/>
+    <row r="309" s="3" customFormat="1"/>
+    <row r="310" s="3" customFormat="1"/>
+    <row r="311" s="3" customFormat="1"/>
+    <row r="312" s="3" customFormat="1"/>
+    <row r="313" s="3" customFormat="1"/>
+    <row r="314" s="3" customFormat="1"/>
+    <row r="315" s="3" customFormat="1"/>
+    <row r="316" s="3" customFormat="1"/>
+    <row r="317" s="3" customFormat="1"/>
+    <row r="318" s="3" customFormat="1"/>
+    <row r="319" s="3" customFormat="1"/>
+    <row r="320" s="3" customFormat="1"/>
+    <row r="321" s="3" customFormat="1"/>
+    <row r="322" s="3" customFormat="1"/>
+    <row r="323" s="3" customFormat="1"/>
+    <row r="324" s="3" customFormat="1"/>
+    <row r="325" s="3" customFormat="1"/>
+    <row r="326" s="3" customFormat="1"/>
+    <row r="327" s="3" customFormat="1"/>
+    <row r="328" s="3" customFormat="1"/>
+    <row r="329" s="3" customFormat="1"/>
+    <row r="330" s="3" customFormat="1"/>
+    <row r="331" s="3" customFormat="1"/>
+    <row r="332" s="3" customFormat="1"/>
+    <row r="333" s="3" customFormat="1"/>
+    <row r="334" s="3" customFormat="1"/>
+    <row r="335" s="3" customFormat="1"/>
+    <row r="336" s="3" customFormat="1"/>
+    <row r="337" s="3" customFormat="1"/>
+    <row r="338" s="3" customFormat="1"/>
+    <row r="339" s="3" customFormat="1"/>
+    <row r="340" s="3" customFormat="1"/>
+    <row r="341" s="3" customFormat="1"/>
+    <row r="342" s="3" customFormat="1"/>
+    <row r="343" s="3" customFormat="1"/>
+    <row r="344" s="3" customFormat="1"/>
+    <row r="345" s="3" customFormat="1"/>
+    <row r="346" s="3" customFormat="1"/>
+    <row r="347" s="3" customFormat="1"/>
+    <row r="348" s="3" customFormat="1"/>
+    <row r="349" s="3" customFormat="1"/>
+    <row r="350" s="3" customFormat="1"/>
+    <row r="351" s="3" customFormat="1"/>
+    <row r="352" s="3" customFormat="1"/>
+    <row r="353" s="3" customFormat="1"/>
+    <row r="354" s="3" customFormat="1"/>
+    <row r="355" s="3" customFormat="1"/>
+    <row r="356" s="3" customFormat="1"/>
+    <row r="357" s="3" customFormat="1"/>
+    <row r="358" s="3" customFormat="1"/>
+    <row r="359" s="3" customFormat="1"/>
+    <row r="360" s="3" customFormat="1"/>
+    <row r="361" s="3" customFormat="1"/>
+    <row r="362" s="3" customFormat="1"/>
+    <row r="363" s="3" customFormat="1"/>
+    <row r="364" s="3" customFormat="1"/>
+    <row r="365" s="3" customFormat="1"/>
+    <row r="366" s="3" customFormat="1"/>
+    <row r="367" s="3" customFormat="1"/>
+    <row r="368" s="3" customFormat="1"/>
+    <row r="369" s="3" customFormat="1"/>
+    <row r="370" s="3" customFormat="1"/>
+    <row r="371" s="3" customFormat="1"/>
+    <row r="372" s="3" customFormat="1"/>
+    <row r="373" s="3" customFormat="1"/>
+    <row r="374" s="3" customFormat="1"/>
+    <row r="375" s="3" customFormat="1"/>
+    <row r="376" s="3" customFormat="1"/>
+    <row r="377" s="3" customFormat="1"/>
+    <row r="378" s="3" customFormat="1"/>
+    <row r="379" s="3" customFormat="1"/>
+    <row r="380" s="3" customFormat="1"/>
+    <row r="381" s="3" customFormat="1"/>
+    <row r="382" s="3" customFormat="1"/>
+    <row r="383" s="3" customFormat="1"/>
+    <row r="384" s="3" customFormat="1"/>
+    <row r="385" s="3" customFormat="1"/>
+    <row r="386" s="3" customFormat="1"/>
+    <row r="387" s="3" customFormat="1"/>
+    <row r="388" s="3" customFormat="1"/>
+    <row r="389" s="3" customFormat="1"/>
+    <row r="390" s="3" customFormat="1"/>
+    <row r="391" s="3" customFormat="1"/>
+    <row r="392" s="3" customFormat="1"/>
+    <row r="393" s="3" customFormat="1"/>
+    <row r="394" s="3" customFormat="1"/>
+    <row r="395" s="3" customFormat="1"/>
+    <row r="396" s="3" customFormat="1"/>
+    <row r="397" s="3" customFormat="1"/>
+    <row r="398" s="3" customFormat="1"/>
+    <row r="399" s="3" customFormat="1"/>
+    <row r="400" s="3" customFormat="1"/>
     <row r="401" spans="4:17">
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -9508,63 +6701,63 @@
       <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
     </row>
-    <row r="402" spans="16:17">
+    <row r="402" spans="4:17">
       <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
     </row>
-    <row r="403" spans="16:17">
+    <row r="403" spans="4:17">
       <c r="P403" s="3"/>
       <c r="Q403" s="3"/>
     </row>
-    <row r="404" spans="16:17">
+    <row r="404" spans="4:17">
       <c r="P404" s="3"/>
       <c r="Q404" s="3"/>
     </row>
-    <row r="405" spans="16:17">
+    <row r="405" spans="4:17">
       <c r="P405" s="3"/>
       <c r="Q405" s="3"/>
     </row>
-    <row r="406" spans="16:17">
+    <row r="406" spans="4:17">
       <c r="P406" s="3"/>
       <c r="Q406" s="3"/>
     </row>
-    <row r="407" spans="16:17">
+    <row r="407" spans="4:17">
       <c r="P407" s="3"/>
       <c r="Q407" s="3"/>
     </row>
-    <row r="408" spans="16:17">
+    <row r="408" spans="4:17">
       <c r="P408" s="3"/>
       <c r="Q408" s="3"/>
     </row>
-    <row r="409" spans="16:17">
+    <row r="409" spans="4:17">
       <c r="P409" s="3"/>
       <c r="Q409" s="3"/>
     </row>
-    <row r="410" spans="16:17">
+    <row r="410" spans="4:17">
       <c r="P410" s="3"/>
       <c r="Q410" s="3"/>
     </row>
-    <row r="411" spans="16:17">
+    <row r="411" spans="4:17">
       <c r="P411" s="3"/>
       <c r="Q411" s="3"/>
     </row>
-    <row r="412" spans="16:17">
+    <row r="412" spans="4:17">
       <c r="P412" s="3"/>
       <c r="Q412" s="3"/>
     </row>
-    <row r="413" spans="16:17">
+    <row r="413" spans="4:17">
       <c r="P413" s="3"/>
       <c r="Q413" s="3"/>
     </row>
-    <row r="414" spans="16:17">
+    <row r="414" spans="4:17">
       <c r="P414" s="3"/>
       <c r="Q414" s="3"/>
     </row>
-    <row r="415" spans="16:17">
+    <row r="415" spans="4:17">
       <c r="P415" s="3"/>
       <c r="Q415" s="3"/>
     </row>
-    <row r="416" spans="16:17">
+    <row r="416" spans="4:17">
       <c r="P416" s="3"/>
       <c r="Q416" s="3"/>
     </row>
@@ -9677,8 +6870,8 @@
       <c r="Q443" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/input/尿结石表B：数据集.xlsx
+++ b/input/尿结石表B：数据集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\PycharmProjects\pyqt5\NJS_ARpt_project\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF784538-B16E-4A53-BD92-F6CEF3A0FD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D2C788-8208-4E84-8A49-06EA08ECA629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="516" windowWidth="21864" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="爱湾内部" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="164">
   <si>
     <t>实验号</t>
   </si>
@@ -487,18 +487,34 @@
     <t>4-羟基-6-甲基-2-吡喃酮</t>
   </si>
   <si>
-    <t>S2302030001</t>
-  </si>
-  <si>
     <t>男</t>
   </si>
   <si>
-    <t>S2302030002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2302030003</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>S2302030004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2302030005</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2302030006</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2302030007</t>
+  </si>
+  <si>
+    <t>S2302030008</t>
+  </si>
+  <si>
+    <t>S2302030009</t>
+  </si>
+  <si>
+    <t>S2302030010</t>
+  </si>
+  <si>
+    <t>S2302030011</t>
   </si>
 </sst>
 </file>
@@ -506,9 +522,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,11 +536,13 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -556,6 +574,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -564,6 +583,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -628,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -639,10 +665,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,19 +677,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,7 +984,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1445,11 +1474,11 @@
       </c>
     </row>
     <row r="2" spans="1:155">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C2" s="3">
         <v>23</v>
@@ -1912,11 +1941,11 @@
       </c>
     </row>
     <row r="3" spans="1:155">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3">
         <v>23</v>
@@ -2379,11 +2408,11 @@
       </c>
     </row>
     <row r="4" spans="1:155">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>158</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3">
         <v>23</v>
@@ -2846,86 +2875,2342 @@
       </c>
     </row>
     <row r="5" spans="1:155">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="A5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="3">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1184.7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>236.09066999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>14880</v>
+      </c>
+      <c r="H5" s="3">
+        <v>238.21187</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1220.42</v>
+      </c>
+      <c r="J5" s="3">
+        <v>756.34400000000005</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1170.616</v>
+      </c>
+      <c r="L5" s="3">
+        <v>57.96</v>
+      </c>
+      <c r="M5" s="3">
+        <v>58.963999999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>992.04</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2526.7530000000002</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1782.672</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>24.202000000000002</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>13.67</v>
+      </c>
+      <c r="V5" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="X5" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>317.5</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="CP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="CX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="CZ5" s="3">
+        <v>9.61</v>
+      </c>
+      <c r="DA5" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="DB5" s="3">
+        <v>108.58</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="DH5" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="DI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="DK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DM5" s="3">
+        <v>108.19</v>
+      </c>
+      <c r="DN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="3">
+        <v>19.27</v>
+      </c>
+      <c r="DQ5" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="DR5" s="3">
+        <v>23.61</v>
+      </c>
+      <c r="DS5" s="3">
+        <v>25.13</v>
+      </c>
+      <c r="DT5" s="3">
+        <v>250.53</v>
+      </c>
+      <c r="DU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DX5" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="DY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="3">
+        <v>93.95</v>
+      </c>
+      <c r="EC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED5" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="EE5" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="EF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ5" s="3">
+        <v>59.83</v>
+      </c>
+      <c r="EK5" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="EL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP5" s="3">
+        <v>21.19</v>
+      </c>
+      <c r="EQ5" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="ER5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES5" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET5" s="3">
+        <v>37.47</v>
+      </c>
+      <c r="EU5" s="3">
+        <v>304.38</v>
+      </c>
+      <c r="EV5" s="3">
+        <v>100</v>
+      </c>
+      <c r="EW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX5" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="EY5" s="3">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="6" spans="1:155">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="A6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1184.7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>236.09066999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>14880</v>
+      </c>
+      <c r="H6" s="3">
+        <v>238.21187</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1220.42</v>
+      </c>
+      <c r="J6" s="3">
+        <v>756.34400000000005</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1170.616</v>
+      </c>
+      <c r="L6" s="3">
+        <v>57.96</v>
+      </c>
+      <c r="M6" s="3">
+        <v>58.963999999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>992.04</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2526.7530000000002</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1782.672</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>24.202000000000002</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>13.67</v>
+      </c>
+      <c r="V6" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="X6" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>317.5</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="BN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="BQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="BS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="BW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="BY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="CD6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="CE6" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="CF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="CJ6" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="CK6" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="CL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="CP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="CR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="CX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY6" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="CZ6" s="3">
+        <v>9.61</v>
+      </c>
+      <c r="DA6" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="DB6" s="3">
+        <v>108.58</v>
+      </c>
+      <c r="DC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="DH6" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="DI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="DK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DM6" s="3">
+        <v>108.19</v>
+      </c>
+      <c r="DN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="3">
+        <v>19.27</v>
+      </c>
+      <c r="DQ6" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="DR6" s="3">
+        <v>23.61</v>
+      </c>
+      <c r="DS6" s="3">
+        <v>25.13</v>
+      </c>
+      <c r="DT6" s="3">
+        <v>250.53</v>
+      </c>
+      <c r="DU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DX6" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="DY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB6" s="3">
+        <v>93.95</v>
+      </c>
+      <c r="EC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="EE6" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="EF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ6" s="3">
+        <v>59.83</v>
+      </c>
+      <c r="EK6" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="EL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP6" s="3">
+        <v>21.19</v>
+      </c>
+      <c r="EQ6" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="ER6" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES6" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET6" s="3">
+        <v>37.47</v>
+      </c>
+      <c r="EU6" s="3">
+        <v>304.38</v>
+      </c>
+      <c r="EV6" s="3">
+        <v>100</v>
+      </c>
+      <c r="EW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX6" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="EY6" s="3">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7" spans="1:155">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="A7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="3">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1184.7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>236.09066999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>14880</v>
+      </c>
+      <c r="H7" s="3">
+        <v>238.21187</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1220.42</v>
+      </c>
+      <c r="J7" s="3">
+        <v>756.34400000000005</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1170.616</v>
+      </c>
+      <c r="L7" s="3">
+        <v>57.96</v>
+      </c>
+      <c r="M7" s="3">
+        <v>58.963999999999999</v>
+      </c>
+      <c r="N7" s="3">
+        <v>992.04</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2526.7530000000002</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1782.672</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>24.202000000000002</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>13.67</v>
+      </c>
+      <c r="V7" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="X7" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>317.5</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="BY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="CD7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="CE7" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="CF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="CJ7" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="CK7" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="CL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="CP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="CR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="CX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY7" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="CZ7" s="3">
+        <v>9.61</v>
+      </c>
+      <c r="DA7" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="DB7" s="3">
+        <v>108.58</v>
+      </c>
+      <c r="DC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="DH7" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="DI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="DK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DM7" s="3">
+        <v>108.19</v>
+      </c>
+      <c r="DN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="3">
+        <v>19.27</v>
+      </c>
+      <c r="DQ7" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="DR7" s="3">
+        <v>23.61</v>
+      </c>
+      <c r="DS7" s="3">
+        <v>25.13</v>
+      </c>
+      <c r="DT7" s="3">
+        <v>250.53</v>
+      </c>
+      <c r="DU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DX7" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="DY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="3">
+        <v>93.95</v>
+      </c>
+      <c r="EC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="EE7" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="EF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="3">
+        <v>59.83</v>
+      </c>
+      <c r="EK7" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="EL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="3">
+        <v>21.19</v>
+      </c>
+      <c r="EQ7" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="ER7" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="3">
+        <v>37.47</v>
+      </c>
+      <c r="EU7" s="3">
+        <v>304.38</v>
+      </c>
+      <c r="EV7" s="3">
+        <v>100</v>
+      </c>
+      <c r="EW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="EY7" s="3">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="8" spans="1:155">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="A8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="3">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1184.7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>236.09066999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>14880</v>
+      </c>
+      <c r="H8" s="3">
+        <v>238.21187</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1220.42</v>
+      </c>
+      <c r="J8" s="3">
+        <v>756.34400000000005</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1170.616</v>
+      </c>
+      <c r="L8" s="3">
+        <v>57.96</v>
+      </c>
+      <c r="M8" s="3">
+        <v>58.963999999999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>992.04</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2526.7530000000002</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1782.672</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>24.202000000000002</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U8" s="3">
+        <v>13.67</v>
+      </c>
+      <c r="V8" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="X8" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>317.5</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="BS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="BY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="CD8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="CE8" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="CF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="CJ8" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="CK8" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="CL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="CP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="CR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="CX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="CZ8" s="3">
+        <v>9.61</v>
+      </c>
+      <c r="DA8" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="DB8" s="3">
+        <v>108.58</v>
+      </c>
+      <c r="DC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="DH8" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="DI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="DK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DM8" s="3">
+        <v>108.19</v>
+      </c>
+      <c r="DN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="3">
+        <v>19.27</v>
+      </c>
+      <c r="DQ8" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="DR8" s="3">
+        <v>23.61</v>
+      </c>
+      <c r="DS8" s="3">
+        <v>25.13</v>
+      </c>
+      <c r="DT8" s="3">
+        <v>250.53</v>
+      </c>
+      <c r="DU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DX8" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="DY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB8" s="3">
+        <v>93.95</v>
+      </c>
+      <c r="EC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="EE8" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="EF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="3">
+        <v>59.83</v>
+      </c>
+      <c r="EK8" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="EL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="3">
+        <v>21.19</v>
+      </c>
+      <c r="EQ8" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="ER8" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="3">
+        <v>37.47</v>
+      </c>
+      <c r="EU8" s="3">
+        <v>304.38</v>
+      </c>
+      <c r="EV8" s="3">
+        <v>100</v>
+      </c>
+      <c r="EW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="EY8" s="3">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="9" spans="1:155">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="A9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.72</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1184.7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>236.09066999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14880</v>
+      </c>
+      <c r="H9" s="3">
+        <v>238.21187</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1220.42</v>
+      </c>
+      <c r="J9" s="3">
+        <v>756.34400000000005</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1170.616</v>
+      </c>
+      <c r="L9" s="3">
+        <v>57.96</v>
+      </c>
+      <c r="M9" s="3">
+        <v>58.963999999999999</v>
+      </c>
+      <c r="N9" s="3">
+        <v>992.04</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2526.7530000000002</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1782.672</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>24.202000000000002</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>13.67</v>
+      </c>
+      <c r="V9" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="X9" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>8.89</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>317.5</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="BP9" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="BS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="3">
+        <v>1.37</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="BY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="CD9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="CE9" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="CF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="CJ9" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="CK9" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="CL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="3">
+        <v>7.12</v>
+      </c>
+      <c r="CP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="CR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="CX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="3">
+        <v>2.59</v>
+      </c>
+      <c r="CZ9" s="3">
+        <v>9.61</v>
+      </c>
+      <c r="DA9" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="DB9" s="3">
+        <v>108.58</v>
+      </c>
+      <c r="DC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="DH9" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="DI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="DK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DM9" s="3">
+        <v>108.19</v>
+      </c>
+      <c r="DN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="3">
+        <v>19.27</v>
+      </c>
+      <c r="DQ9" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="DR9" s="3">
+        <v>23.61</v>
+      </c>
+      <c r="DS9" s="3">
+        <v>25.13</v>
+      </c>
+      <c r="DT9" s="3">
+        <v>250.53</v>
+      </c>
+      <c r="DU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="DX9" s="3">
+        <v>31.71</v>
+      </c>
+      <c r="DY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="3">
+        <v>93.95</v>
+      </c>
+      <c r="EC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="EE9" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="EF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="3">
+        <v>59.83</v>
+      </c>
+      <c r="EK9" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="EL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="3">
+        <v>21.19</v>
+      </c>
+      <c r="EQ9" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="ER9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="3">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="3">
+        <v>37.47</v>
+      </c>
+      <c r="EU9" s="3">
+        <v>304.38</v>
+      </c>
+      <c r="EV9" s="3">
+        <v>100</v>
+      </c>
+      <c r="EW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="EY9" s="3">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="10" spans="1:155">
+      <c r="A10" s="12"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2939,7 +5224,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:155">
       <c r="D11" s="3"/>
